--- a/Template-Generator for Moodle Databases.xlsx
+++ b/Template-Generator for Moodle Databases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa2fd555716d4621/Schule/Schule/Medien/Moodle/Vorlagen/Datenbank/Datenbank-Generator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa2fd555716d4621/Schule/Schule/Medien/Moodle/Vorlagen/Datenbank/Git/moodle-database-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="644" documentId="13_ncr:1_{7DEECC36-6B18-4B7F-96A7-5897EB976A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A03A915C-A3BF-40F7-B552-FD9FD9A27892}"/>
+  <xr:revisionPtr revIDLastSave="772" documentId="13_ncr:1_{7DEECC36-6B18-4B7F-96A7-5897EB976A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6F06918-AD24-49A7-B94E-FBAD07C9CD1F}"/>
   <bookViews>
     <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B7FF9584-A0C9-4520-8363-27EB39F90318}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>fiel#id</t>
   </si>
@@ -64,12 +64,6 @@
     <t>rss</t>
   </si>
   <si>
-    <t>Inhalt</t>
-  </si>
-  <si>
-    <t>Datatable-Priorität</t>
-  </si>
-  <si>
     <t>th-dt</t>
   </si>
   <si>
@@ -85,24 +79,12 @@
     <t>listtemplateheader.html (dt)</t>
   </si>
   <si>
-    <t>Überschriften / Spalten</t>
-  </si>
-  <si>
-    <t>Moodle-Feld</t>
-  </si>
-  <si>
     <t>Neuer Eintrag</t>
   </si>
   <si>
     <t>Einzelansicht</t>
   </si>
   <si>
-    <t>Vorname</t>
-  </si>
-  <si>
-    <t>Nachname</t>
-  </si>
-  <si>
     <t>#ffffff</t>
   </si>
   <si>
@@ -133,12 +115,6 @@
     <t>Vorlagen-Generator für Moodle Datenbanken</t>
   </si>
   <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>Nein</t>
-  </si>
-  <si>
     <t>DataTables Aktivieren (datatables.net)</t>
   </si>
   <si>
@@ -148,15 +124,6 @@
     <t>Icon-Farbe (Header)</t>
   </si>
   <si>
-    <t>Vorlage</t>
-  </si>
-  <si>
-    <t>Beschreibung</t>
-  </si>
-  <si>
-    <t>Geburtstag</t>
-  </si>
-  <si>
     <t>Allgemeine Einstellungen</t>
   </si>
   <si>
@@ -196,9 +163,6 @@
     <t>[Settings]</t>
   </si>
   <si>
-    <t>&lt;/tbody&gt; &lt;/table&gt; &lt;!-- Optional JavaScript --&gt; &lt;!-- jQuery first, then Popper.js, then Bootstrap JS --&gt; &lt;script src='https://code.jquery.com/jquery-3.3.1.slim.min.js' integrity='sha384-q8i/X+965DzO0rT7abK41JStQIAqVgRVzpbzo5smXKp4YfRvH+8abtTE1Pi6jizo' crossorigin='anonymous'&gt;&lt;/script&gt; &lt;script src='https://cdnjs.cloudflare.com/ajax/libs/popper.js/1.14.7/umd/popper.min.js' integrity='sha384-UO2eT0CpHqdSJQ6hJty5KVphtPhzWj9WO1clHTMGa3JDZwrnQq4sF86dIHNDz0W1' crossorigin='anonymous'&gt;&lt;/script&gt; &lt;!-- DataTables JavaScript --&gt; &lt;script type='text/javascript' src='https://cdnjs.cloudflare.com/ajax/libs/pdfmake/0.1.36/pdfmake.min.js'&gt;&lt;/script&gt; &lt;script type='text/javascript' src='https://cdnjs.cloudflare.com/ajax/libs/pdfmake/0.1.36/vfs_fonts.js'&gt;&lt;/script&gt; &lt;script type='text/javascript' src='https://cdn.datatables.net/v/bs4/jq-3.6.0/jszip-2.5.0/dt-1.13.2/b-2.3.4/b-colvis-2.3.4/b-html5-2.3.4/b-print-2.3.4/r-2.4.0/datatables.min.js'&gt;&lt;/script&gt; &lt;script&gt; $(document).ready(function () { $('#mydatatable').DataTable({ responsive: true, paging: false, autoWidth: false, info: false, dom: 'frtipB', buttons: [ { extend: 'copy', text: 'Kopieren', className: 'btn btn-secondary mx-1'}, { extend: 'excel', text: 'Excel' , className: 'btn btn-secondary mr-1'}, { extend: 'csvHtml5', text: 'CSV', fieldBoundary: '', fieldSeparator: ';', className: 'btn btn-secondary mr-1'}, { extend: 'pdf', text: 'PDF' , className: 'btn btn-secondary mr-1'}, { extend: 'print', text: 'Drucken' , className: 'btn btn-secondary mr-1'} ] }); }); &lt;/script&gt; &lt;style&gt; div.dt-buttons { float: right; } &lt;/style&gt;</t>
-  </si>
-  <si>
     <t>View list</t>
   </si>
   <si>
@@ -208,7 +172,28 @@
     <t>Add Entry</t>
   </si>
   <si>
-    <t>Ja / Yes</t>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>Headline / Überschriften</t>
+  </si>
+  <si>
+    <t>Moodle field / Feld</t>
+  </si>
+  <si>
+    <t>Datatable-Priority / Priorität</t>
+  </si>
+  <si>
+    <t>View Single</t>
+  </si>
+  <si>
+    <t>No / Nein</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>&lt;/tbody&gt; &lt;/table&gt; &lt;!-- Optional JavaScript --&gt; &lt;!-- jQuery first, then Popper.js, then Bootstrap JS --&gt; &lt;script src='https://code.jquery.com/jquery-3.3.1.slim.min.js' integrity='sha384-q8i/X+965DzO0rT7abK41JStQIAqVgRVzpbzo5smXKp4YfRvH+8abtTE1Pi6jizo' crossorigin='anonymous'&gt;&lt;/script&gt; &lt;script src='https://cdnjs.cloudflare.com/ajax/libs/popper.js/1.14.7/umd/popper.min.js' integrity='sha384-UO2eT0CpHqdSJQ6hJty5KVphtPhzWj9WO1clHTMGa3JDZwrnQq4sF86dIHNDz0W1' crossorigin='anonymous'&gt;&lt;/script&gt; &lt;!-- DataTables JavaScript --&gt; &lt;script type='text/javascript' src='https://cdnjs.cloudflare.com/ajax/libs/pdfmake/0.1.36/pdfmake.min.js'&gt;&lt;/script&gt; &lt;script type='text/javascript' src='https://cdnjs.cloudflare.com/ajax/libs/pdfmake/0.1.36/vfs_fonts.js'&gt;&lt;/script&gt; &lt;script type='text/javascript' src='https://cdn.datatables.net/v/bs4/jq-3.6.0/jszip-2.5.0/dt-1.13.2/b-2.3.4/b-colvis-2.3.4/b-html5-2.3.4/b-print-2.3.4/r-2.4.0/datatables.min.js'&gt;&lt;/script&gt; &lt;script&gt; $(document).ready(function () { $('#mydatatable').DataTable({ responsive: true, paging: false, autoWidth: false, info: false, dom: 'frtipB', buttons: [ { extend: 'copy', text: 'Copy', className: 'btn btn-secondary mx-1'}, { extend: 'excel', text: 'Excel' , className: 'btn btn-secondary mr-1'}, { extend: 'csvHtml5', text: 'CSV', fieldBoundary: '', fieldSeparator: ';', className: 'btn btn-secondary mr-1'}, { extend: 'pdf', text: 'PDF' , className: 'btn btn-secondary mr-1'}, { extend: 'print', text: 'Print' , className: 'btn btn-secondary mr-1'} ] }); }); &lt;/script&gt; &lt;style&gt; div.dt-buttons { float: right; } &lt;/style&gt;</t>
   </si>
 </sst>
 </file>
@@ -260,15 +245,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -307,6 +283,14 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -350,7 +334,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -497,19 +481,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -519,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -548,20 +519,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -590,10 +549,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -602,45 +558,49 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -656,26 +616,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF008196"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFCCCC"/>
@@ -685,14 +625,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -928,10 +861,57 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF008196"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9999"/>
       <color rgb="FF008196"/>
       <color rgb="FFFFF8E5"/>
       <color rgb="FF7ABDC8"/>
@@ -950,34 +930,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}" name="Tabelle1" displayName="Tabelle1" ref="B2:K6" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
-  <autoFilter ref="B2:K6" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}" name="Tabelle1" displayName="Tabelle1" ref="B2:K3" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="B2:K3" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{2CAD02C3-E989-47F2-ACF1-05D86CC61050}" name="Moodle-Feld" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{B960D793-A4EA-4541-8B7A-84581F4C723A}" name="fiel#id" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{2CAD02C3-E989-47F2-ACF1-05D86CC61050}" name="Moodle field / Feld" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{B960D793-A4EA-4541-8B7A-84581F4C723A}" name="fiel#id" dataDxfId="12">
       <calculatedColumnFormula>"[["&amp;B3&amp;"]]"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DCDC97CD-02E6-4CE9-9F45-005A62064FC9}" name="Überschriften / Spalten" dataDxfId="14">
-      <calculatedColumnFormula>$B3</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{DCDC97CD-02E6-4CE9-9F45-005A62064FC9}" name="Headline / Überschriften" dataDxfId="11">
+      <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","&lt;----- Add field",$B3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{73C1862E-07BA-4DA4-A5A7-3EE3F8645709}" name="Datatable-Priorität" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{BED9F1AF-933E-484D-B943-F21888931742}" name="divs" dataDxfId="12">
+    <tableColumn id="10" xr3:uid="{73C1862E-07BA-4DA4-A5A7-3EE3F8645709}" name="Datatable-Priority / Priorität" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{BED9F1AF-933E-484D-B943-F21888931742}" name="divs" dataDxfId="9">
       <calculatedColumnFormula>"&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D3&amp;"&lt;/h4&gt;"&amp;C3&amp;"&lt;br&gt;&lt;/div&gt;"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F65B0FC7-4D25-4967-9C79-E815C7C09652}" name="th" dataDxfId="11">
-      <calculatedColumnFormula>"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Überschriften / Spalten]]&amp;"&lt;/th&gt;"</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{F65B0FC7-4D25-4967-9C79-E815C7C09652}" name="th" dataDxfId="8">
+      <calculatedColumnFormula>"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7F22C2F6-82A9-4292-8453-565D3776B203}" name="th-dt" dataDxfId="10">
-      <calculatedColumnFormula>IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Überschriften / Spalten]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Überschriften / Spalten]]&amp;"&lt;/th&gt;")</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{7F22C2F6-82A9-4292-8453-565D3776B203}" name="th-dt" dataDxfId="7">
+      <calculatedColumnFormula>IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3B5DCC51-0242-46B9-A6E0-0032E39596DB}" name="td" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{3B5DCC51-0242-46B9-A6E0-0032E39596DB}" name="td" dataDxfId="6">
       <calculatedColumnFormula>"&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{73A94E74-D092-4EB3-B6B4-F3F1F171A2EE}" name="p" dataDxfId="8">
-      <calculatedColumnFormula>"&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Überschriften / Spalten]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;"</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{73A94E74-D092-4EB3-B6B4-F3F1F171A2EE}" name="p" dataDxfId="5">
+      <calculatedColumnFormula>"&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B03A9011-0203-4333-A7A9-6BF47E4ED1DD}" name="rss" dataDxfId="7">
-      <calculatedColumnFormula>"&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Überschriften / Spalten]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;"</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{B03A9011-0203-4333-A7A9-6BF47E4ED1DD}" name="rss" dataDxfId="4">
+      <calculatedColumnFormula>"&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1284,7 +1264,7 @@
   <dimension ref="B1:F25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1297,342 +1277,342 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" s="1" customFormat="1" ht="21.45" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:6" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="32" t="str">
+    <row r="2" spans="2:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="27" t="str">
         <f>IF($E$7="EN",C2,D2)</f>
-        <v>Vorlagen-Generator für Moodle Datenbanken</v>
-      </c>
-      <c r="C2" s="33" t="s">
+        <v>Template-Generator for Moodle Databases</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" spans="2:6" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="13" t="str">
+        <f>IF($E$7="EN",C4,D4)</f>
+        <v>[Settings]</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="14" t="str">
+        <f>IF($E$7="EN","[Value]","[Wert]")</f>
+        <v>[Value]</v>
+      </c>
+      <c r="F4" s="23" t="str">
+        <f>IF($E$7="EN","[Default]","[Standard]")</f>
+        <v>[Default]</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="26" t="str">
+        <f>IF($E$7="EN",C6,D6)</f>
+        <v>Global Settings</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="30" t="str">
+        <f>IF($E$7="EN",C7,D7)</f>
+        <v>Language</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-    </row>
-    <row r="3" spans="2:6" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="17" t="str">
-        <f>IF($E$7="EN",C4,D4)</f>
-        <v>[Einstellungen]</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="18" t="str">
-        <f>IF($E$7="EN","[Value]","[Wert]")</f>
-        <v>[Wert]</v>
-      </c>
-      <c r="F4" s="28" t="str">
-        <f>IF($E$7="EN","[Default]","[Standard]")</f>
-        <v>[Standard]</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="31" t="str">
-        <f>IF($E$7="EN",C6,D6)</f>
-        <v>Allgemeine Einstellungen</v>
-      </c>
-      <c r="C6" s="34" t="s">
+      <c r="D7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="30" t="str">
+        <f>IF($E$7="EN",C8,D8)</f>
+        <v>Activate DataTables (datatables.net)</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-    </row>
-    <row r="7" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="35" t="str">
-        <f>IF($E$7="EN",C7,D7)</f>
-        <v>Sprache (Language)</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="35" t="str">
-        <f>IF($E$7="EN",C8,D8)</f>
-        <v>DataTables Aktivieren (datatables.net)</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="F8" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="26" t="str">
+        <f>IF($E$7="EN",C10,D10)</f>
+        <v>Add Entry</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="30" t="str">
+        <f>IF($E$7="EN",C11,D11)</f>
+        <v>headline</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="25" t="str">
+        <f>IF($E$7="EN","Add Entry","Neuer Eintrag")</f>
+        <v>Add Entry</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="30" t="str">
+        <f>IF($E$7="EN",C12,D12)</f>
+        <v>background-color (header)</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="30" t="str">
+        <f>IF($E$7="EN",C13,D13)</f>
+        <v>text-color (header)</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="26" t="str">
+        <f>IF($E$7="EN",C15,D15)</f>
+        <v>View single</v>
+      </c>
+      <c r="C15" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="31" t="str">
-        <f>IF($E$7="EN",C10,D10)</f>
-        <v>Neuer Eintrag</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-    </row>
-    <row r="11" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="35" t="str">
-        <f>IF($E$7="EN",C11,D11)</f>
-        <v>Überschrift</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="30" t="str">
-        <f>IF($E$7="EN","Add entry","Neuer Eintrag")</f>
-        <v>Neuer Eintrag</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="35" t="str">
-        <f>IF($E$7="EN",C12,D12)</f>
-        <v>Hintergrund-Farbe (Kopfzeile)</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="35" t="str">
-        <f>IF($E$7="EN",C13,D13)</f>
-        <v>Text-Farbe (Header)</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="31" t="str">
-        <f>IF($E$7="EN",C15,D15)</f>
-        <v>Einzelansicht</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
+      <c r="D15" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="35" t="str">
+      <c r="B16" s="30" t="str">
         <f>IF($E$7="EN",C16,D16)</f>
-        <v>Überschrift für Einzelansicht:</v>
+        <v>headline single view</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="25" t="str">
+        <f>IF($E$7="EN","View Single","Einzelansicht")</f>
+        <v>View Single</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="30" t="str">
+        <f>IF($E$7="EN",C17,D17)</f>
+        <v>background-color (header)</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="30" t="str">
-        <f>IF($E$7="EN","View single","Einzelansicht")</f>
-        <v>Einzelansicht</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="35" t="str">
-        <f>IF($E$7="EN",C17,D17)</f>
-        <v>Hintergrund-Farbe (Header)</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="30" t="str">
+        <f>IF($E$7="EN",C18,D18)</f>
+        <v>text-color (header)</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="30" t="str">
+        <f>IF($E$7="EN",C19,D19)</f>
+        <v>icon-color (header)</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="26" t="str">
+        <f>IF($E$7="EN",C21,D21)</f>
+        <v>View list</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="30" t="str">
+        <f>IF($E$7="EN",C22,D22)</f>
+        <v>background-color (header)</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="30" t="str">
+        <f>IF($E$7="EN",C23,D23)</f>
+        <v>text-color (header)</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="35" t="str">
-        <f>IF($E$7="EN",C18,D18)</f>
-        <v>Text-Farbe (Header)</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="35" t="str">
-        <f>IF($E$7="EN",C19,D19)</f>
-        <v>Icon-Farbe (Header)</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="31" t="str">
-        <f>IF($E$7="EN",C21,D21)</f>
-        <v>Listenansicht</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="34" t="s">
+      <c r="E23" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="30" t="str">
+        <f>IF($E$7="EN",C24,D24)</f>
+        <v>button-color ("More")</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-    </row>
-    <row r="22" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="35" t="str">
-        <f>IF($E$7="EN",C22,D22)</f>
-        <v>Hintergrund-Farbe (Kopfzeile)</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="35" t="str">
-        <f>IF($E$7="EN",C23,D23)</f>
-        <v>Text-Farbe (Kopfzeile)</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="35" t="str">
-        <f>IF($E$7="EN",C24,D24)</f>
-        <v>Button-Farbe ("Mehr")</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>22</v>
+      <c r="E24" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -1642,15 +1622,13 @@
       <c r="E25" s="9"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8" xr:uid="{FF42B124-4F1C-4423-82C1-287F77043EF3}">
-      <formula1>"Ja,Nein"</formula1>
-    </dataValidation>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7" xr:uid="{DCB09D1D-471D-4A57-A3F7-D7948131D178}">
       <formula1>"EN,DE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{A8CAC37C-024F-4961-99E9-2F29F9A898DE}">
-      <formula1>"Ja / Yes,Nein / No"</formula1>
+      <formula1>"Yes / Ja,No / Nein"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1660,19 +1638,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234EB558-CFCC-4432-98E6-8A1A4CF8F187}">
-  <dimension ref="B1:K6"/>
+  <dimension ref="B1:K3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.05" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.84375" customWidth="1"/>
-    <col min="2" max="2" width="50.69140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="50.69140625" style="11" customWidth="1"/>
     <col min="3" max="3" width="40.4609375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="50.69140625" customWidth="1"/>
-    <col min="5" max="5" width="23.765625" customWidth="1"/>
+    <col min="5" max="5" width="31.3046875" customWidth="1"/>
     <col min="6" max="6" width="11.07421875" hidden="1" customWidth="1"/>
     <col min="7" max="11" width="20.69140625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="20.69140625" customWidth="1"/>
@@ -1682,201 +1660,90 @@
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="2:11" s="1" customFormat="1" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="D2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="27" t="s">
+      <c r="H2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:11" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B3" s="7"/>
       <c r="C3" s="7" t="str">
         <f>"[["&amp;B3&amp;"]]"</f>
-        <v>[[Vorname]]</v>
+        <v>[[]]</v>
       </c>
       <c r="D3" s="6" t="str">
-        <f>$B3</f>
-        <v>Vorname</v>
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","&lt;----- Add field",$B3)</f>
+        <v>&lt;----- Add field</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="5" t="str">
         <f>"&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D3&amp;"&lt;/h4&gt;"&amp;C3&amp;"&lt;br&gt;&lt;/div&gt;"</f>
-        <v>&lt;div&gt;&lt;h4 class='my-3'&gt;Vorname&lt;/h4&gt;[[Vorname]]&lt;br&gt;&lt;/div&gt;</v>
+        <v>&lt;div&gt;&lt;h4 class='my-3'&gt;&lt;----- Add field&lt;/h4&gt;[[]]&lt;br&gt;&lt;/div&gt;</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f>"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Überschriften / Spalten]]&amp;"&lt;/th&gt;"</f>
-        <v>&lt;th&gt;Vorname&lt;/th&gt;</v>
+        <f>"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"</f>
+        <v>&lt;th&gt;&lt;----- Add field&lt;/th&gt;</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f>IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Überschriften / Spalten]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Überschriften / Spalten]]&amp;"&lt;/th&gt;")</f>
-        <v>&lt;th&gt;Vorname&lt;/th&gt;</v>
+        <f>IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;----- Add field&lt;/th&gt;</v>
       </c>
       <c r="I3" s="4" t="str">
         <f>"&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;"</f>
-        <v>&lt;td&gt;[[Vorname]]&lt;/td&gt;</v>
+        <v>&lt;td&gt;[[]]&lt;/td&gt;</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f>"&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Überschriften / Spalten]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt;&lt;h4&gt;Vorname&lt;/h4&gt;[[Vorname]]&lt;/p&gt;</v>
+        <f>"&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;"</f>
+        <v>&lt;p&gt;&lt;h4&gt;&lt;----- Add field&lt;/h4&gt;[[]]&lt;/p&gt;</v>
       </c>
       <c r="K3" s="4" t="str">
-        <f>"&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Überschriften / Spalten]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;Vorname: &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;[[Vorname]]&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="12" t="str">
-        <f>"[["&amp;B4&amp;"]]"</f>
-        <v>[[Nachname]]</v>
-      </c>
-      <c r="D4" s="12" t="str">
-        <f>$B4</f>
-        <v>Nachname</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="5" t="str">
-        <f t="shared" ref="F4:F6" si="0">"&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D4&amp;"&lt;/h4&gt;"&amp;C4&amp;"&lt;br&gt;&lt;/div&gt;"</f>
-        <v>&lt;div&gt;&lt;h4 class='my-3'&gt;Nachname&lt;/h4&gt;[[Nachname]]&lt;br&gt;&lt;/div&gt;</v>
-      </c>
-      <c r="G4" s="14" t="str">
-        <f>"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Überschriften / Spalten]]&amp;"&lt;/th&gt;"</f>
-        <v>&lt;th&gt;Nachname&lt;/th&gt;</v>
-      </c>
-      <c r="H4" s="14" t="str">
-        <f>IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Überschriften / Spalten]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Überschriften / Spalten]]&amp;"&lt;/th&gt;")</f>
-        <v>&lt;th&gt;Nachname&lt;/th&gt;</v>
-      </c>
-      <c r="I4" s="14" t="str">
-        <f>"&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;"</f>
-        <v>&lt;td&gt;[[Nachname]]&lt;/td&gt;</v>
-      </c>
-      <c r="J4" s="4" t="str">
-        <f>"&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Überschriften / Spalten]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt;&lt;h4&gt;Nachname&lt;/h4&gt;[[Nachname]]&lt;/p&gt;</v>
-      </c>
-      <c r="K4" s="14" t="str">
-        <f>"&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Überschriften / Spalten]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;Nachname: &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;[[Nachname]]&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="12" t="str">
-        <f>"[["&amp;B5&amp;"]]"</f>
-        <v>[[Beschreibung]]</v>
-      </c>
-      <c r="D5" s="12" t="str">
-        <f>$B5</f>
-        <v>Beschreibung</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;div&gt;&lt;h4 class='my-3'&gt;Beschreibung&lt;/h4&gt;[[Beschreibung]]&lt;br&gt;&lt;/div&gt;</v>
-      </c>
-      <c r="G5" s="14" t="str">
-        <f>"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Überschriften / Spalten]]&amp;"&lt;/th&gt;"</f>
-        <v>&lt;th&gt;Beschreibung&lt;/th&gt;</v>
-      </c>
-      <c r="H5" s="14" t="str">
-        <f>IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Überschriften / Spalten]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Überschriften / Spalten]]&amp;"&lt;/th&gt;")</f>
-        <v>&lt;th&gt;Beschreibung&lt;/th&gt;</v>
-      </c>
-      <c r="I5" s="14" t="str">
-        <f>"&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;"</f>
-        <v>&lt;td&gt;[[Beschreibung]]&lt;/td&gt;</v>
-      </c>
-      <c r="J5" s="4" t="str">
-        <f>"&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Überschriften / Spalten]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt;&lt;h4&gt;Beschreibung&lt;/h4&gt;[[Beschreibung]]&lt;/p&gt;</v>
-      </c>
-      <c r="K5" s="14" t="str">
-        <f>"&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Überschriften / Spalten]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;Beschreibung: &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;[[Beschreibung]]&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="12" t="str">
-        <f>"[["&amp;B6&amp;"]]"</f>
-        <v>[[Geburtstag]]</v>
-      </c>
-      <c r="D6" s="12" t="str">
-        <f>$B6</f>
-        <v>Geburtstag</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;div&gt;&lt;h4 class='my-3'&gt;Geburtstag&lt;/h4&gt;[[Geburtstag]]&lt;br&gt;&lt;/div&gt;</v>
-      </c>
-      <c r="G6" s="14" t="str">
-        <f>"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Überschriften / Spalten]]&amp;"&lt;/th&gt;"</f>
-        <v>&lt;th&gt;Geburtstag&lt;/th&gt;</v>
-      </c>
-      <c r="H6" s="14" t="str">
-        <f>IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Überschriften / Spalten]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Überschriften / Spalten]]&amp;"&lt;/th&gt;")</f>
-        <v>&lt;th&gt;Geburtstag&lt;/th&gt;</v>
-      </c>
-      <c r="I6" s="14" t="str">
-        <f>"&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;"</f>
-        <v>&lt;td&gt;[[Geburtstag]]&lt;/td&gt;</v>
-      </c>
-      <c r="J6" s="4" t="str">
-        <f>"&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Überschriften / Spalten]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt;&lt;h4&gt;Geburtstag&lt;/h4&gt;[[Geburtstag]]&lt;/p&gt;</v>
-      </c>
-      <c r="K6" s="14" t="str">
-        <f>"&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Überschriften / Spalten]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;Geburtstag: &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;[[Geburtstag]]&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;&lt;----- Add field: &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;[[]]&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B3:C6">
-    <cfRule type="expression" dxfId="6" priority="9">
+  <conditionalFormatting sqref="B3:C3">
+    <cfRule type="expression" dxfId="24" priority="10">
       <formula>$C3="[[]]"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="duplicateValues" dxfId="5" priority="31"/>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="duplicateValues" dxfId="23" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B6">
-    <cfRule type="duplicateValues" dxfId="4" priority="32"/>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="duplicateValues" dxfId="22" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+      <formula>"&lt;----- Add field"</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1890,8 +1757,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="33" id="{BE7AB623-6523-4B26-A3C4-47AC598EE9D3}">
-            <xm:f>Settings!$E$8="NEIN"</xm:f>
+          <x14:cfRule type="expression" priority="34" id="{BE7AB623-6523-4B26-A3C4-47AC598EE9D3}">
+            <xm:f>Settings!$E$8="No / Nein"</xm:f>
             <x14:dxf>
               <font>
                 <color theme="0" tint="-0.14996795556505021"/>
@@ -1906,8 +1773,8 @@
           <xm:sqref>E2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="34" id="{782B3D60-64E5-4D21-982D-F1986967DF2B}">
-            <xm:f>Settings!$E$8="NEIN"</xm:f>
+          <x14:cfRule type="expression" priority="35" id="{782B3D60-64E5-4D21-982D-F1986967DF2B}">
+            <xm:f>Settings!$E$8="No / Nein"</xm:f>
             <x14:dxf>
               <font>
                 <color theme="0" tint="-0.34998626667073579"/>
@@ -1919,7 +1786,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E3:E6</xm:sqref>
+          <xm:sqref>E3</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1932,7 +1799,7 @@
   <dimension ref="B1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1943,194 +1810,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="20.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:4" s="36" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" s="37" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="16" t="str">
+        <f>IF(Settings!$E$7="EN","Template","Vorlage")</f>
+        <v>Template</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="str">
         <f>IF(Settings!$E$7="EN","Add template","Neue Einträge")</f>
-        <v>Neue Einträge</v>
-      </c>
-      <c r="C3" s="39" t="str">
+        <v>Add template</v>
+      </c>
+      <c r="C3" s="32" t="str">
         <f>"&lt;div class='container'&gt;&lt;div class='card shadow mb-4 rounded'&gt;&lt;div class='card-header bg-info'&gt;&lt;h4 class='m-2'&gt;"&amp;Settings!E11&amp;"&lt;/h4&gt;&lt;/div&gt;&lt;div class='card-body pb-0 pt-4 m-0'&gt;&lt;div class='card-text m-0 p-0'&gt;"&amp;_xlfn.TEXTJOIN(,TRUE,Tabelle1[divs])&amp;"&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;hr&gt;"</f>
-        <v>&lt;div class='container'&gt;&lt;div class='card shadow mb-4 rounded'&gt;&lt;div class='card-header bg-info'&gt;&lt;h4 class='m-2'&gt;Neuer Eintrag&lt;/h4&gt;&lt;/div&gt;&lt;div class='card-body pb-0 pt-4 m-0'&gt;&lt;div class='card-text m-0 p-0'&gt;&lt;div&gt;&lt;h4 class='my-3'&gt;Vorname&lt;/h4&gt;[[Vorname]]&lt;br&gt;&lt;/div&gt;&lt;div&gt;&lt;h4 class='my-3'&gt;Nachname&lt;/h4&gt;[[Nachname]]&lt;br&gt;&lt;/div&gt;&lt;div&gt;&lt;h4 class='my-3'&gt;Beschreibung&lt;/h4&gt;[[Beschreibung]]&lt;br&gt;&lt;/div&gt;&lt;div&gt;&lt;h4 class='my-3'&gt;Geburtstag&lt;/h4&gt;[[Geburtstag]]&lt;br&gt;&lt;/div&gt;&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;hr&gt;</v>
-      </c>
-      <c r="D3" s="37" t="str">
+        <v>&lt;div class='container'&gt;&lt;div class='card shadow mb-4 rounded'&gt;&lt;div class='card-header bg-info'&gt;&lt;h4 class='m-2'&gt;Add Entry&lt;/h4&gt;&lt;/div&gt;&lt;div class='card-body pb-0 pt-4 m-0'&gt;&lt;div class='card-text m-0 p-0'&gt;&lt;div&gt;&lt;h4 class='my-3'&gt;&lt;----- Add field&lt;/h4&gt;[[]]&lt;br&gt;&lt;/div&gt;&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;hr&gt;</v>
+      </c>
+      <c r="D3" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:4" s="37" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="str">
         <f>IF(Settings!$E$7="EN","Single template","Einzelansicht")</f>
-        <v>Einzelansicht</v>
-      </c>
-      <c r="C4" s="39" t="str">
+        <v>Single template</v>
+      </c>
+      <c r="C4" s="32" t="str">
         <f>"&lt;div class='container'&gt; &lt;div class='card shadow mb-4 rounded'&gt; &lt;div class='card-header bg-info'&gt; &lt;div class='row'&gt;"&amp;" &lt;div class='col-6'&gt; &lt;h4 class='m-2'&gt;"&amp;Settings!E16&amp;"&lt;/h4&gt; &lt;/div&gt; &lt;div class='col-6 text-right'&gt;"&amp;"&lt;h4 class='m-2'&gt;&lt;em&gt;##approvalstatus## &lt;/em&gt;&amp;ensp; ##edit####delete####approve####disapprove##&lt;/h4&gt;&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;div class='card-body'&gt; &lt;div class='container'&gt;"&amp;" &lt;div class='row'&gt; &lt;div class='col'&gt;"&amp;_xlfn.TEXTJOIN(,,Tabelle1[p])&amp;"&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;div class='card-footer text-muted text-center'&gt;&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;hr&gt;"</f>
-        <v>&lt;div class='container'&gt; &lt;div class='card shadow mb-4 rounded'&gt; &lt;div class='card-header bg-info'&gt; &lt;div class='row'&gt; &lt;div class='col-6'&gt; &lt;h4 class='m-2'&gt;Einzelansicht&lt;/h4&gt; &lt;/div&gt; &lt;div class='col-6 text-right'&gt;&lt;h4 class='m-2'&gt;&lt;em&gt;##approvalstatus## &lt;/em&gt;&amp;ensp; ##edit####delete####approve####disapprove##&lt;/h4&gt;&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;div class='card-body'&gt; &lt;div class='container'&gt; &lt;div class='row'&gt; &lt;div class='col'&gt;&lt;p&gt;&lt;h4&gt;Vorname&lt;/h4&gt;[[Vorname]]&lt;/p&gt;&lt;p&gt;&lt;h4&gt;Nachname&lt;/h4&gt;[[Nachname]]&lt;/p&gt;&lt;p&gt;&lt;h4&gt;Beschreibung&lt;/h4&gt;[[Beschreibung]]&lt;/p&gt;&lt;p&gt;&lt;h4&gt;Geburtstag&lt;/h4&gt;[[Geburtstag]]&lt;/p&gt;&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;div class='card-footer text-muted text-center'&gt;&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;hr&gt;</v>
-      </c>
-      <c r="D4" s="37" t="str">
+        <v>&lt;div class='container'&gt; &lt;div class='card shadow mb-4 rounded'&gt; &lt;div class='card-header bg-info'&gt; &lt;div class='row'&gt; &lt;div class='col-6'&gt; &lt;h4 class='m-2'&gt;View Single&lt;/h4&gt; &lt;/div&gt; &lt;div class='col-6 text-right'&gt;&lt;h4 class='m-2'&gt;&lt;em&gt;##approvalstatus## &lt;/em&gt;&amp;ensp; ##edit####delete####approve####disapprove##&lt;/h4&gt;&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;div class='card-body'&gt; &lt;div class='container'&gt; &lt;div class='row'&gt; &lt;div class='col'&gt;&lt;p&gt;&lt;h4&gt;&lt;----- Add field&lt;/h4&gt;[[]]&lt;/p&gt;&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;div class='card-footer text-muted text-center'&gt;&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;hr&gt;</v>
+      </c>
+      <c r="D4" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="2:4" s="37" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="39" t="str">
+        <v>11</v>
+      </c>
+      <c r="C5" s="32" t="str">
         <f>"&lt;div class='table-responsive'&gt;&lt;table class='table table-bordered table-hover table-striped'&gt;&lt;thead&gt;&lt;tr class='fixieren'&gt;"&amp;_xlfn.TEXTJOIN(,TRUE,Tabelle1[th])&amp;"&lt;th class='text-center'&gt;&lt;i class='fa fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;"</f>
-        <v>&lt;div class='table-responsive'&gt;&lt;table class='table table-bordered table-hover table-striped'&gt;&lt;thead&gt;&lt;tr class='fixieren'&gt;&lt;th&gt;Vorname&lt;/th&gt;&lt;th&gt;Nachname&lt;/th&gt;&lt;th&gt;Beschreibung&lt;/th&gt;&lt;th&gt;Geburtstag&lt;/th&gt;&lt;th class='text-center'&gt;&lt;i class='fa fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;</v>
-      </c>
-      <c r="D5" s="37" t="str">
+        <v>&lt;div class='table-responsive'&gt;&lt;table class='table table-bordered table-hover table-striped'&gt;&lt;thead&gt;&lt;tr class='fixieren'&gt;&lt;th&gt;&lt;----- Add field&lt;/th&gt;&lt;th class='text-center'&gt;&lt;i class='fa fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;</v>
+      </c>
+      <c r="D5" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:4" s="37" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="39" t="str">
+        <v>12</v>
+      </c>
+      <c r="C6" s="32" t="str">
         <f>"&lt;!-- DataTables CSS --&gt;&lt;link rel='stylesheet' type='text/css' href='https://cdn.datatables.net/v/bs4/jq-3.6.0/jszip-2.5.0/dt-1.13.2/b-2.3.4/b-colvis-2.3.4/b-html5-2.3.4/b-print-2.3.4/r-2.4.0/datatables.min.css'/&gt;"&amp;"&lt;table id='mydatatable' class='table table-striped table-bordered hover display compact sm order-column'style='width:100%'&gt;&lt;thead class='table-info'&gt;&lt;tr&gt;"&amp;_xlfn.TEXTJOIN(,,Tabelle1[th-dt])&amp;"&lt;th data-priority='1' class='text-center'&gt;&lt;i class='fa  fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;"</f>
-        <v>&lt;!-- DataTables CSS --&gt;&lt;link rel='stylesheet' type='text/css' href='https://cdn.datatables.net/v/bs4/jq-3.6.0/jszip-2.5.0/dt-1.13.2/b-2.3.4/b-colvis-2.3.4/b-html5-2.3.4/b-print-2.3.4/r-2.4.0/datatables.min.css'/&gt;&lt;table id='mydatatable' class='table table-striped table-bordered hover display compact sm order-column'style='width:100%'&gt;&lt;thead class='table-info'&gt;&lt;tr&gt;&lt;th&gt;Vorname&lt;/th&gt;&lt;th&gt;Nachname&lt;/th&gt;&lt;th&gt;Beschreibung&lt;/th&gt;&lt;th&gt;Geburtstag&lt;/th&gt;&lt;th data-priority='1' class='text-center'&gt;&lt;i class='fa  fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;</v>
-      </c>
-      <c r="D6" s="37" t="str">
+        <v>&lt;!-- DataTables CSS --&gt;&lt;link rel='stylesheet' type='text/css' href='https://cdn.datatables.net/v/bs4/jq-3.6.0/jszip-2.5.0/dt-1.13.2/b-2.3.4/b-colvis-2.3.4/b-html5-2.3.4/b-print-2.3.4/r-2.4.0/datatables.min.css'/&gt;&lt;table id='mydatatable' class='table table-striped table-bordered hover display compact sm order-column'style='width:100%'&gt;&lt;thead class='table-info'&gt;&lt;tr&gt;&lt;th&gt;&lt;----- Add field&lt;/th&gt;&lt;th data-priority='1' class='text-center'&gt;&lt;i class='fa  fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;</v>
+      </c>
+      <c r="D6" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:4" s="37" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="str">
         <f>IF(Settings!$E$7="EN","List template (Header)","Liste (Kopfzeile)")</f>
-        <v>Liste (Kopfzeile)</v>
-      </c>
-      <c r="C7" s="39" t="str">
-        <f>IF(Settings!E8="Ja / Yes",C6,C5)</f>
-        <v>&lt;!-- DataTables CSS --&gt;&lt;link rel='stylesheet' type='text/css' href='https://cdn.datatables.net/v/bs4/jq-3.6.0/jszip-2.5.0/dt-1.13.2/b-2.3.4/b-colvis-2.3.4/b-html5-2.3.4/b-print-2.3.4/r-2.4.0/datatables.min.css'/&gt;&lt;table id='mydatatable' class='table table-striped table-bordered hover display compact sm order-column'style='width:100%'&gt;&lt;thead class='table-info'&gt;&lt;tr&gt;&lt;th&gt;Vorname&lt;/th&gt;&lt;th&gt;Nachname&lt;/th&gt;&lt;th&gt;Beschreibung&lt;/th&gt;&lt;th&gt;Geburtstag&lt;/th&gt;&lt;th data-priority='1' class='text-center'&gt;&lt;i class='fa  fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;</v>
-      </c>
-      <c r="D7" s="37" t="str">
+        <v>List template (Header)</v>
+      </c>
+      <c r="C7" s="32" t="str">
+        <f>IF(Settings!E8="Yes / Ja",C6,C5)</f>
+        <v>&lt;div class='table-responsive'&gt;&lt;table class='table table-bordered table-hover table-striped'&gt;&lt;thead&gt;&lt;tr class='fixieren'&gt;&lt;th&gt;&lt;----- Add field&lt;/th&gt;&lt;th class='text-center'&gt;&lt;i class='fa fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;</v>
+      </c>
+      <c r="D7" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:4" s="37" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:4" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="str">
         <f>IF(Settings!$E$7="EN","List template (Repeated entry)","Liste (Wiederholter Eintrag)")</f>
-        <v>Liste (Wiederholter Eintrag)</v>
-      </c>
-      <c r="C8" s="39" t="str">
+        <v>List template (Repeated entry)</v>
+      </c>
+      <c r="C8" s="32" t="str">
         <f>"&lt;tr&gt;"&amp;_xlfn.TEXTJOIN(,TRUE,Tabelle1[td])&amp;"&lt;td&gt;&lt;div class='dropdown'&gt;&lt;button class='btn btn-outline-primary dropdown-toggle' type='button' id='dropdownMenuButton' data-toggle='dropdown' aria-haspopup='true' aria-expanded='false'&gt;"&amp;IF(Settings!$E$7="EN","More","Mehr")&amp;"&lt;/button&gt;"&amp;"&lt;div class='dropdown-menu'&gt;&lt;div class='dropdown-item'&gt;##more##&lt;/div&gt;&lt;div class='dropdown-item'&gt;##edit##&lt;/div&gt;"&amp;"&lt;div class='dropdown-item'&gt;##approve####disapprove##&lt;/div&gt;&lt;div class='dropdown-divider'&gt;&lt;/div&gt;&lt;div class='dropdown-item'&gt;##delete##&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;[[Vorname]]&lt;/td&gt;&lt;td&gt;[[Nachname]]&lt;/td&gt;&lt;td&gt;[[Beschreibung]]&lt;/td&gt;&lt;td&gt;[[Geburtstag]]&lt;/td&gt;&lt;td&gt;&lt;div class='dropdown'&gt;&lt;button class='btn btn-outline-primary dropdown-toggle' type='button' id='dropdownMenuButton' data-toggle='dropdown' aria-haspopup='true' aria-expanded='false'&gt;Mehr&lt;/button&gt;&lt;div class='dropdown-menu'&gt;&lt;div class='dropdown-item'&gt;##more##&lt;/div&gt;&lt;div class='dropdown-item'&gt;##edit##&lt;/div&gt;&lt;div class='dropdown-item'&gt;##approve####disapprove##&lt;/div&gt;&lt;div class='dropdown-divider'&gt;&lt;/div&gt;&lt;div class='dropdown-item'&gt;##delete##&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="D8" s="37" t="str">
+        <v>&lt;tr&gt;&lt;td&gt;[[]]&lt;/td&gt;&lt;td&gt;&lt;div class='dropdown'&gt;&lt;button class='btn btn-outline-primary dropdown-toggle' type='button' id='dropdownMenuButton' data-toggle='dropdown' aria-haspopup='true' aria-expanded='false'&gt;More&lt;/button&gt;&lt;div class='dropdown-menu'&gt;&lt;div class='dropdown-item'&gt;##more##&lt;/div&gt;&lt;div class='dropdown-item'&gt;##edit##&lt;/div&gt;&lt;div class='dropdown-item'&gt;##approve####disapprove##&lt;/div&gt;&lt;div class='dropdown-divider'&gt;&lt;/div&gt;&lt;div class='dropdown-item'&gt;##delete##&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="D8" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:4" s="37" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="39" t="str">
+        <v>9</v>
+      </c>
+      <c r="C9" s="32" t="str">
         <f>"&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;"</f>
         <v>&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;</v>
       </c>
-      <c r="D9" s="37" t="str">
+      <c r="D9" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:4" s="37" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="37" t="str">
+        <v>10</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:4" s="37" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:4" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="str">
         <f>IF(Settings!$E$7="EN","List template (Footer)","Liste (Fußzeile)")</f>
-        <v>Liste (Fußzeile)</v>
-      </c>
-      <c r="C11" s="39" t="str">
-        <f>IF(Settings!E8="Ja / Yes",C10,C9)</f>
-        <v>&lt;/tbody&gt; &lt;/table&gt; &lt;!-- Optional JavaScript --&gt; &lt;!-- jQuery first, then Popper.js, then Bootstrap JS --&gt; &lt;script src='https://code.jquery.com/jquery-3.3.1.slim.min.js' integrity='sha384-q8i/X+965DzO0rT7abK41JStQIAqVgRVzpbzo5smXKp4YfRvH+8abtTE1Pi6jizo' crossorigin='anonymous'&gt;&lt;/script&gt; &lt;script src='https://cdnjs.cloudflare.com/ajax/libs/popper.js/1.14.7/umd/popper.min.js' integrity='sha384-UO2eT0CpHqdSJQ6hJty5KVphtPhzWj9WO1clHTMGa3JDZwrnQq4sF86dIHNDz0W1' crossorigin='anonymous'&gt;&lt;/script&gt; &lt;!-- DataTables JavaScript --&gt; &lt;script type='text/javascript' src='https://cdnjs.cloudflare.com/ajax/libs/pdfmake/0.1.36/pdfmake.min.js'&gt;&lt;/script&gt; &lt;script type='text/javascript' src='https://cdnjs.cloudflare.com/ajax/libs/pdfmake/0.1.36/vfs_fonts.js'&gt;&lt;/script&gt; &lt;script type='text/javascript' src='https://cdn.datatables.net/v/bs4/jq-3.6.0/jszip-2.5.0/dt-1.13.2/b-2.3.4/b-colvis-2.3.4/b-html5-2.3.4/b-print-2.3.4/r-2.4.0/datatables.min.js'&gt;&lt;/script&gt; &lt;script&gt; $(document).ready(function () { $('#mydatatable').DataTable({ responsive: true, paging: false, autoWidth: false, info: false, dom: 'frtipB', buttons: [ { extend: 'copy', text: 'Kopieren', className: 'btn btn-secondary mx-1'}, { extend: 'excel', text: 'Excel' , className: 'btn btn-secondary mr-1'}, { extend: 'csvHtml5', text: 'CSV', fieldBoundary: '', fieldSeparator: ';', className: 'btn btn-secondary mr-1'}, { extend: 'pdf', text: 'PDF' , className: 'btn btn-secondary mr-1'}, { extend: 'print', text: 'Drucken' , className: 'btn btn-secondary mr-1'} ] }); }); &lt;/script&gt; &lt;style&gt; div.dt-buttons { float: right; } &lt;/style&gt;</v>
-      </c>
-      <c r="D11" s="37" t="str">
+        <v>List template (Footer)</v>
+      </c>
+      <c r="C11" s="32" t="str">
+        <f>IF(Settings!E8="Yes / Ja",C10,C9)</f>
+        <v>&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;</v>
+      </c>
+      <c r="D11" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:4" s="37" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="str">
         <f>IF(Settings!$E$7="EN","Advanced search template","Erweiterten Suche")</f>
-        <v>Erweiterten Suche</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="37" t="str">
+        <v>Advanced search template</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:4" s="37" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="str">
         <f>IF(Settings!$E$7="EN","RSS template","RSS-Feed")</f>
-        <v>RSS-Feed</v>
-      </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="37" t="str">
+        <v>RSS template</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:4" s="37" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="37" t="str">
+      <c r="C14" s="32"/>
+      <c r="D14" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:4" s="37" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="str">
         <f>IF(Settings!$E$7="EN","CSS template","CSS-Vorlage")</f>
-        <v>CSS-Vorlage</v>
-      </c>
-      <c r="C15" s="39" t="str">
-        <f>"/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","View single","Einzelansicht")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Edit","Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Edit","Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Delete","Löschen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN","Do not approve","Nicht freigeben")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN","Approve","Zulassen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-item:empty { display: none; } "&amp;" /* Headlines */ h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; } "&amp;" /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; } "&amp;" /* Button color */ .btn-outline-primary { color: "&amp;Settings!E24&amp;"!important; border-color: "&amp;Settings!E24&amp;"!important; } "&amp;" /* Header new entry */ #page-mod-data-edit .card-header { background-color: "&amp;Settings!E12&amp;" !important; } "&amp;" #page-mod-data-edit .card-header h4 { color: "&amp;Settings!E13&amp;"; } "&amp;" /* Headlines formfields */ h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; } "&amp;" /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; } "&amp;" /* Header color single view */ #page-mod-data-view .card-header { background-color: "&amp;Settings!E17&amp;" !important; } "&amp;" #page-mod-data-view .card-header h4 { color: "&amp;Settings!E18&amp;"; } "&amp;" /* Edit Icons color and bigger size */ .card-header .icon { color: "&amp;Settings!E19&amp;"; font-size: 20px; width: 20px; height: 20px; } "&amp;" /* Style of table header in list view */ th { background-color: "&amp;Settings!E22&amp;"; color: "&amp;Settings!E23&amp;"; }"</f>
-        <v>/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' Einzelansicht'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' Bearbeiten'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' Bearbeiten'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' Löschen'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' Nicht freigeben'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' Zulassen'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-item:empty { display: none; }  /* Headlines */ h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; }  /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; }  /* Button color */ .btn-outline-primary { color: #008196!important; border-color: #008196!important; }  /* Header new entry */ #page-mod-data-edit .card-header { background-color: #008196 !important; }  #page-mod-data-edit .card-header h4 { color: #ffffff; }  /* Headlines formfields */ h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; }  /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; }  /* Header color single view */ #page-mod-data-view .card-header { background-color: #008196 !important; }  #page-mod-data-view .card-header h4 { color: #ffffff; }  /* Edit Icons color and bigger size */ .card-header .icon { color: #ffffff; font-size: 20px; width: 20px; height: 20px; }  /* Style of table header in list view */ th { background-color: #008196; color: #ffffff; }</v>
-      </c>
-      <c r="D15" s="37" t="str">
+        <v>CSS template</v>
+      </c>
+      <c r="C15" s="32" t="str">
+        <f>"/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","View single","Einzelansicht")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Edit","Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Edit","Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Delete","Löschen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN","Do not approve","Nicht freigeben")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN","Approve","Zulassen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-item:empty { display: none; } "&amp;" /* Headlines */ h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; } "&amp;" /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; } "&amp;" /* Button color */ .btn-outline-primary { color: "&amp;Settings!E24&amp;"!important; border-color: "&amp;Settings!E24&amp;"!important; } "&amp;".btn-outline-primary:hover, .btn-outline-primary:active, .btn-outline-primary:visited, .btn-outline-primary:focus {background-color: "&amp;Settings!E24&amp;" !important;color: #ffffff !important;}"&amp;".dropdown-item:hover .icon {color: #fff;}"&amp;" /* Header new entry */ #page-mod-data-edit .card-header { background-color: "&amp;Settings!E12&amp;" !important; } "&amp;" #page-mod-data-edit .card-header h4 { color: "&amp;Settings!E13&amp;"; } .dropdown-item:hover{background-color: "&amp;Settings!E24&amp;";}"&amp;" /* Headlines formfields */ h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; } "&amp;" /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; } "&amp;" /* Header color single view */ #page-mod-data-view .card-header { background-color: "&amp;Settings!E17&amp;" !important; } "&amp;" #page-mod-data-view .card-header h4 { color: "&amp;Settings!E18&amp;"; } "&amp;" /* Edit Icons color and bigger size */ .card-header .icon { color: "&amp;Settings!E19&amp;"; font-size: 20px; width: 20px; height: 20px; } "&amp;" /* Style of table header in list view */ th { background-color: "&amp;Settings!E22&amp;"; color: "&amp;Settings!E23&amp;"; }"</f>
+        <v>/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' View single'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' Delete'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' Do not approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' Approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-item:empty { display: none; }  /* Headlines */ h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; }  /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; }  /* Button color */ .btn-outline-primary { color: #008196!important; border-color: #008196!important; } .btn-outline-primary:hover, .btn-outline-primary:active, .btn-outline-primary:visited, .btn-outline-primary:focus {background-color: #008196 !important;color: #ffffff !important;}.dropdown-item:hover .icon {color: #fff;} /* Header new entry */ #page-mod-data-edit .card-header { background-color: #008196 !important; }  #page-mod-data-edit .card-header h4 { color: #ffffff; } .dropdown-item:hover{background-color: #008196;} /* Headlines formfields */ h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; }  /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; }  /* Header color single view */ #page-mod-data-view .card-header { background-color: #008196 !important; }  #page-mod-data-view .card-header h4 { color: #ffffff; }  /* Edit Icons color and bigger size */ .card-header .icon { color: #ffffff; font-size: 20px; width: 20px; height: 20px; }  /* Style of table header in list view */ th { background-color: #008196; color: #ffffff; }</v>
+      </c>
+      <c r="D15" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:4" s="37" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:4" s="1" customFormat="1" ht="20.05" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="str">
         <f>IF(Settings!$E$7="EN","Javascript template","JavaScript für Vorlagen")</f>
-        <v>JavaScript für Vorlagen</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="37" t="str">
+        <v>Javascript template</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:4" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D17" s="37" t="str">
+      <c r="D17" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
@@ -2138,27 +2006,37 @@
     <row r="18" spans="2:4" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="str">
         <f>IF(Settings!$E$7="EN","DataTables Check","DataTables Prüfung")</f>
-        <v>DataTables Prüfung</v>
-      </c>
-      <c r="C18" s="38" t="str">
-        <f>IF(Settings!E8="Ja / Yes",IF(SUM(Tabelle1[Datatable-Priorität])=(COUNTA(Tabelle1[Datatable-Priorität]))*(COUNTA(Tabelle1[Datatable-Priorität])+1)/2,"Alle Prioritäten korrekt angegeben!","Prioritäten nicht korrekt angegeben!"),"DataTables wird nicht verwendet!")</f>
-        <v>Alle Prioritäten korrekt angegeben!</v>
-      </c>
-      <c r="D18" s="37" t="str">
+        <v>DataTables Check</v>
+      </c>
+      <c r="C18" s="31" t="str">
+        <f>IF(Settings!$E$7="EN",IF(Settings!E8="Yes / Ja",IF(SUM(Tabelle1[Datatable-Priority / Priorität])=(COUNTA(Tabelle1[Datatable-Priority / Priorität]))*(COUNTA(Tabelle1[Datatable-Priority / Priorität])+1)/2,"All DataTable priorities correct!","DataTable priorities not correct!"),"DataTable not activated!"),IF(Settings!E8="Yes / Ja",IF(SUM(Tabelle1[Datatable-Priority / Priorität])=(COUNTA(Tabelle1[Datatable-Priority / Priorität]))*(COUNTA(Tabelle1[Datatable-Priority / Priorität])+1)/2,"Alle Prioritäten korrekt angegeben!","Prioritäten nicht korrekt angegeben!"),"DataTables wird nicht verwendet!"))</f>
+        <v>DataTable not activated!</v>
+      </c>
+      <c r="D18" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"All DataTable priorities correct!"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"DataTable priorities not correct!"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Alle Prioritäten korrekt angegeben!"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Prioritäten nicht korrekt angegeben!"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C4:C9 C11:C15" unlockedFormula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Template-Generator for Moodle Databases.xlsx
+++ b/Template-Generator for Moodle Databases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa2fd555716d4621/Schule/Schule/Medien/Moodle/Vorlagen/Datenbank/Git/moodle-database-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="772" documentId="13_ncr:1_{7DEECC36-6B18-4B7F-96A7-5897EB976A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6F06918-AD24-49A7-B94E-FBAD07C9CD1F}"/>
+  <xr:revisionPtr revIDLastSave="1013" documentId="13_ncr:1_{7DEECC36-6B18-4B7F-96A7-5897EB976A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D12737C-0860-4C1E-8F4A-9E2A3DA49D79}"/>
   <bookViews>
     <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B7FF9584-A0C9-4520-8363-27EB39F90318}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>fiel#id</t>
   </si>
@@ -193,14 +193,35 @@
     <t>Code</t>
   </si>
   <si>
-    <t>&lt;/tbody&gt; &lt;/table&gt; &lt;!-- Optional JavaScript --&gt; &lt;!-- jQuery first, then Popper.js, then Bootstrap JS --&gt; &lt;script src='https://code.jquery.com/jquery-3.3.1.slim.min.js' integrity='sha384-q8i/X+965DzO0rT7abK41JStQIAqVgRVzpbzo5smXKp4YfRvH+8abtTE1Pi6jizo' crossorigin='anonymous'&gt;&lt;/script&gt; &lt;script src='https://cdnjs.cloudflare.com/ajax/libs/popper.js/1.14.7/umd/popper.min.js' integrity='sha384-UO2eT0CpHqdSJQ6hJty5KVphtPhzWj9WO1clHTMGa3JDZwrnQq4sF86dIHNDz0W1' crossorigin='anonymous'&gt;&lt;/script&gt; &lt;!-- DataTables JavaScript --&gt; &lt;script type='text/javascript' src='https://cdnjs.cloudflare.com/ajax/libs/pdfmake/0.1.36/pdfmake.min.js'&gt;&lt;/script&gt; &lt;script type='text/javascript' src='https://cdnjs.cloudflare.com/ajax/libs/pdfmake/0.1.36/vfs_fonts.js'&gt;&lt;/script&gt; &lt;script type='text/javascript' src='https://cdn.datatables.net/v/bs4/jq-3.6.0/jszip-2.5.0/dt-1.13.2/b-2.3.4/b-colvis-2.3.4/b-html5-2.3.4/b-print-2.3.4/r-2.4.0/datatables.min.js'&gt;&lt;/script&gt; &lt;script&gt; $(document).ready(function () { $('#mydatatable').DataTable({ responsive: true, paging: false, autoWidth: false, info: false, dom: 'frtipB', buttons: [ { extend: 'copy', text: 'Copy', className: 'btn btn-secondary mx-1'}, { extend: 'excel', text: 'Excel' , className: 'btn btn-secondary mr-1'}, { extend: 'csvHtml5', text: 'CSV', fieldBoundary: '', fieldSeparator: ';', className: 'btn btn-secondary mr-1'}, { extend: 'pdf', text: 'PDF' , className: 'btn btn-secondary mr-1'}, { extend: 'print', text: 'Print' , className: 'btn btn-secondary mr-1'} ] }); }); &lt;/script&gt; &lt;style&gt; div.dt-buttons { float: right; } &lt;/style&gt;</t>
+    <t>##user##</t>
+  </si>
+  <si>
+    <t>##timeadded##</t>
+  </si>
+  <si>
+    <t>##timemodified##</t>
+  </si>
+  <si>
+    <t>##userpicture##</t>
+  </si>
+  <si>
+    <t>##approvalstatus##</t>
+  </si>
+  <si>
+    <t>##tags##</t>
+  </si>
+  <si>
+    <t>Available Tags</t>
+  </si>
+  <si>
+    <t>Custom Headline / Eigene Überschrift</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,8 +316,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,12 +348,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,17 +399,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -404,17 +423,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -424,47 +432,6 @@
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,104 +453,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -596,42 +543,122 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -645,10 +672,11 @@
           <color indexed="64"/>
         </bottom>
       </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -662,10 +690,11 @@
           <color indexed="64"/>
         </bottom>
       </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -679,10 +708,11 @@
           <color indexed="64"/>
         </bottom>
       </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -694,10 +724,11 @@
         </top>
         <bottom/>
       </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -711,10 +742,11 @@
           <color indexed="64"/>
         </bottom>
       </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -726,10 +758,11 @@
           <color indexed="64"/>
         </bottom>
       </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -739,8 +772,17 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -757,24 +799,10 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -791,7 +819,62 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <border>
@@ -818,6 +901,7 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <border>
@@ -850,7 +934,7 @@
         </patternFill>
       </fill>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -860,6 +944,7 @@
         <top/>
         <bottom/>
       </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -885,13 +970,6 @@
       <font>
         <color rgb="FFC00000"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -930,34 +1008,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}" name="Tabelle1" displayName="Tabelle1" ref="B2:K3" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="B2:K3" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{2CAD02C3-E989-47F2-ACF1-05D86CC61050}" name="Moodle field / Feld" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{B960D793-A4EA-4541-8B7A-84581F4C723A}" name="fiel#id" dataDxfId="12">
-      <calculatedColumnFormula>"[["&amp;B3&amp;"]]"</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}" name="Tabelle1" displayName="Tabelle1" ref="B2:L100" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="B2:L100" xr:uid="{E58CC641-CF45-4CFF-8CC1-2ECB18EEAC18}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{2CAD02C3-E989-47F2-ACF1-05D86CC61050}" name="Moodle field / Feld" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{B960D793-A4EA-4541-8B7A-84581F4C723A}" name="fiel#id" dataDxfId="9">
+      <calculatedColumnFormula>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B3&amp;"]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DCDC97CD-02E6-4CE9-9F45-005A62064FC9}" name="Headline / Überschriften" dataDxfId="11">
-      <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","&lt;----- Add field",$B3)</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{DCDC97CD-02E6-4CE9-9F45-005A62064FC9}" name="Headline / Überschriften" dataDxfId="8">
+      <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{73C1862E-07BA-4DA4-A5A7-3EE3F8645709}" name="Datatable-Priority / Priorität" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{BED9F1AF-933E-484D-B943-F21888931742}" name="divs" dataDxfId="9">
-      <calculatedColumnFormula>"&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D3&amp;"&lt;/h4&gt;"&amp;C3&amp;"&lt;br&gt;&lt;/div&gt;"</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{14D5DAFB-44D4-41AB-99EC-75E1A211501C}" name="Custom Headline / Eigene Überschrift" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{73C1862E-07BA-4DA4-A5A7-3EE3F8645709}" name="Datatable-Priority / Priorität" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{BED9F1AF-933E-484D-B943-F21888931742}" name="divs" dataDxfId="5">
+      <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D3&amp;"&lt;/h4&gt;"&amp;C3&amp;"&lt;br&gt;&lt;/div&gt;"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F65B0FC7-4D25-4967-9C79-E815C7C09652}" name="th" dataDxfId="8">
-      <calculatedColumnFormula>"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{F65B0FC7-4D25-4967-9C79-E815C7C09652}" name="th" dataDxfId="4">
+      <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7F22C2F6-82A9-4292-8453-565D3776B203}" name="th-dt" dataDxfId="7">
-      <calculatedColumnFormula>IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{7F22C2F6-82A9-4292-8453-565D3776B203}" name="th-dt" dataDxfId="3">
+      <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3B5DCC51-0242-46B9-A6E0-0032E39596DB}" name="td" dataDxfId="6">
-      <calculatedColumnFormula>"&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;"</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{3B5DCC51-0242-46B9-A6E0-0032E39596DB}" name="td" dataDxfId="2">
+      <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{73A94E74-D092-4EB3-B6B4-F3F1F171A2EE}" name="p" dataDxfId="5">
-      <calculatedColumnFormula>"&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;"</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{73A94E74-D092-4EB3-B6B4-F3F1F171A2EE}" name="p" dataDxfId="1">
+      <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B03A9011-0203-4333-A7A9-6BF47E4ED1DD}" name="rss" dataDxfId="4">
-      <calculatedColumnFormula>"&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;"</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{B03A9011-0203-4333-A7A9-6BF47E4ED1DD}" name="rss" dataDxfId="0">
+      <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1277,349 +1356,349 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" s="1" customFormat="1" ht="21.45" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="27" t="str">
+    <row r="2" spans="2:6" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="29" t="str">
         <f>IF($E$7="EN",C2,D2)</f>
         <v>Template-Generator for Moodle Databases</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="2:6" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="str">
+      <c r="B4" s="33" t="str">
         <f>IF($E$7="EN",C4,D4)</f>
         <v>[Settings]</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="14" t="str">
+      <c r="E4" s="34" t="str">
         <f>IF($E$7="EN","[Value]","[Wert]")</f>
         <v>[Value]</v>
       </c>
-      <c r="F4" s="23" t="str">
+      <c r="F4" s="35" t="str">
         <f>IF($E$7="EN","[Default]","[Standard]")</f>
         <v>[Default]</v>
       </c>
     </row>
     <row r="5" spans="2:6" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="26" t="str">
+      <c r="B6" s="36" t="str">
         <f>IF($E$7="EN",C6,D6)</f>
         <v>Global Settings</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="30" t="str">
+      <c r="B7" s="38" t="str">
         <f>IF($E$7="EN",C7,D7)</f>
         <v>Language</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="40" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="30" t="str">
+      <c r="B8" s="38" t="str">
         <f>IF($E$7="EN",C8,D8)</f>
         <v>Activate DataTables (datatables.net)</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="41" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="26" t="str">
+      <c r="B10" s="36" t="str">
         <f>IF($E$7="EN",C10,D10)</f>
         <v>Add Entry</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="30" t="str">
+      <c r="B11" s="38" t="str">
         <f>IF($E$7="EN",C11,D11)</f>
         <v>headline</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="25" t="str">
+      <c r="F11" s="41" t="str">
         <f>IF($E$7="EN","Add Entry","Neuer Eintrag")</f>
         <v>Add Entry</v>
       </c>
     </row>
     <row r="12" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="30" t="str">
+      <c r="B12" s="38" t="str">
         <f>IF($E$7="EN",C12,D12)</f>
         <v>background-color (header)</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="41" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="30" t="str">
+      <c r="B13" s="38" t="str">
         <f>IF($E$7="EN",C13,D13)</f>
         <v>text-color (header)</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="26" t="str">
+      <c r="B15" s="36" t="str">
         <f>IF($E$7="EN",C15,D15)</f>
         <v>View single</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="30" t="str">
+      <c r="B16" s="38" t="str">
         <f>IF($E$7="EN",C16,D16)</f>
         <v>headline single view</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="25" t="str">
+      <c r="F16" s="41" t="str">
         <f>IF($E$7="EN","View Single","Einzelansicht")</f>
         <v>View Single</v>
       </c>
     </row>
     <row r="17" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="30" t="str">
+      <c r="B17" s="38" t="str">
         <f>IF($E$7="EN",C17,D17)</f>
         <v>background-color (header)</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="41" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="30" t="str">
+      <c r="B18" s="38" t="str">
         <f>IF($E$7="EN",C18,D18)</f>
         <v>text-color (header)</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="30" t="str">
+      <c r="B19" s="38" t="str">
         <f>IF($E$7="EN",C19,D19)</f>
         <v>icon-color (header)</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
     </row>
     <row r="21" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="26" t="str">
+      <c r="B21" s="36" t="str">
         <f>IF($E$7="EN",C21,D21)</f>
         <v>View list</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
     </row>
     <row r="22" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="30" t="str">
+      <c r="B22" s="38" t="str">
         <f>IF($E$7="EN",C22,D22)</f>
         <v>background-color (header)</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="41" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="30" t="str">
+      <c r="B23" s="38" t="str">
         <f>IF($E$7="EN",C23,D23)</f>
         <v>text-color (header)</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="30" t="str">
+      <c r="B24" s="38" t="str">
         <f>IF($E$7="EN",C24,D24)</f>
         <v>button-color ("More")</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="41" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="2:6" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -1638,7 +1717,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234EB558-CFCC-4432-98E6-8A1A4CF8F187}">
-  <dimension ref="B1:K3"/>
+  <dimension ref="B1:N100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -1647,108 +1726,3729 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.05" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.84375" customWidth="1"/>
-    <col min="2" max="2" width="50.69140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="40.69140625" style="8" customWidth="1"/>
     <col min="3" max="3" width="40.4609375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="50.69140625" customWidth="1"/>
-    <col min="5" max="5" width="31.3046875" customWidth="1"/>
-    <col min="6" max="6" width="11.07421875" hidden="1" customWidth="1"/>
-    <col min="7" max="11" width="20.69140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="20.69140625" customWidth="1"/>
+    <col min="4" max="4" width="40.69140625" customWidth="1"/>
+    <col min="5" max="5" width="40.69140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="31.3046875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.07421875" hidden="1" customWidth="1"/>
+    <col min="8" max="12" width="20.69140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="23.3046875" customWidth="1"/>
+    <col min="14" max="14" width="20.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="21.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="2:11" s="1" customFormat="1" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="17" t="s">
+    <row r="1" spans="2:14" ht="21.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="28"/>
+      <c r="E1"/>
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="2:14" s="1" customFormat="1" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="G2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="H2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="I2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="J2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="K2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="L2" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="str">
-        <f>"[["&amp;B3&amp;"]]"</f>
-        <v>[[]]</v>
-      </c>
-      <c r="D3" s="6" t="str">
-        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","&lt;----- Add field",$B3)</f>
-        <v>&lt;----- Add field</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5" t="str">
-        <f>"&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D3&amp;"&lt;/h4&gt;"&amp;C3&amp;"&lt;br&gt;&lt;/div&gt;"</f>
-        <v>&lt;div&gt;&lt;h4 class='my-3'&gt;&lt;----- Add field&lt;/h4&gt;[[]]&lt;br&gt;&lt;/div&gt;</v>
-      </c>
-      <c r="G3" s="4" t="str">
-        <f>"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"</f>
-        <v>&lt;th&gt;&lt;----- Add field&lt;/th&gt;</v>
-      </c>
-      <c r="H3" s="4" t="str">
-        <f>IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
-        <v>&lt;th&gt;&lt;----- Add field&lt;/th&gt;</v>
-      </c>
-      <c r="I3" s="4" t="str">
-        <f>"&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;"</f>
-        <v>&lt;td&gt;[[]]&lt;/td&gt;</v>
-      </c>
-      <c r="J3" s="4" t="str">
-        <f>"&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt;&lt;h4&gt;&lt;----- Add field&lt;/h4&gt;[[]]&lt;/p&gt;</v>
-      </c>
-      <c r="K3" s="4" t="str">
-        <f>"&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;&lt;----- Add field: &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;[[]]&lt;/td&gt;&lt;/tr&gt;</v>
+      <c r="N2" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="10"/>
+      <c r="C3" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B3&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D3" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="19" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D3&amp;"&lt;/h4&gt;"&amp;C3&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H3" s="20" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I3" s="20" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J3" s="20" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K3" s="20" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L3" s="20" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="10"/>
+      <c r="C4" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B4&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D4" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D4&amp;"&lt;/h4&gt;"&amp;C4&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H4" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I4" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J4" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K4" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L4" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="10"/>
+      <c r="C5" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B5&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D5" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D5&amp;"&lt;/h4&gt;"&amp;C5&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H5" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I5" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J5" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K5" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L5" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="10"/>
+      <c r="C6" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B6&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D6" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D6&amp;"&lt;/h4&gt;"&amp;C6&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H6" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I6" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J6" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K6" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L6" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="10"/>
+      <c r="C7" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B7&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D7" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D7&amp;"&lt;/h4&gt;"&amp;C7&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H7" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I7" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J7" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K7" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L7" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="10"/>
+      <c r="C8" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B8&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D8" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D8&amp;"&lt;/h4&gt;"&amp;C8&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H8" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I8" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J8" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K8" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L8" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="10"/>
+      <c r="C9" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B9&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D9" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D9&amp;"&lt;/h4&gt;"&amp;C9&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H9" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I9" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J9" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K9" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L9" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="10"/>
+      <c r="C10" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B10&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D10" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D10&amp;"&lt;/h4&gt;"&amp;C10&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H10" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I10" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J10" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K10" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L10" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="10"/>
+      <c r="C11" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B11&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D11" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D11&amp;"&lt;/h4&gt;"&amp;C11&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H11" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I11" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J11" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K11" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L11" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="10"/>
+      <c r="C12" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B12&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D12" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D12&amp;"&lt;/h4&gt;"&amp;C12&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H12" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I12" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J12" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K12" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L12" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="10"/>
+      <c r="C13" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B13&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D13" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D13&amp;"&lt;/h4&gt;"&amp;C13&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H13" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I13" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J13" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K13" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L13" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="10"/>
+      <c r="C14" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B14&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D14" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D14&amp;"&lt;/h4&gt;"&amp;C14&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H14" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I14" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J14" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K14" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L14" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="10"/>
+      <c r="C15" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B15&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D15" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D15&amp;"&lt;/h4&gt;"&amp;C15&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H15" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I15" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J15" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K15" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L15" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="10"/>
+      <c r="C16" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B16&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D16" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D16&amp;"&lt;/h4&gt;"&amp;C16&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H16" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I16" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J16" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K16" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L16" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="10"/>
+      <c r="C17" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B17&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D17" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D17&amp;"&lt;/h4&gt;"&amp;C17&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H17" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I17" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J17" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K17" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L17" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="10"/>
+      <c r="C18" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B18&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D18" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D18&amp;"&lt;/h4&gt;"&amp;C18&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H18" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I18" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J18" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K18" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L18" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="10"/>
+      <c r="C19" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B19&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D19" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D19&amp;"&lt;/h4&gt;"&amp;C19&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H19" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I19" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J19" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K19" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L19" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="10"/>
+      <c r="C20" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B20&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D20" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D20&amp;"&lt;/h4&gt;"&amp;C20&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H20" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I20" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J20" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K20" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L20" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="10"/>
+      <c r="C21" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B21&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D21" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D21&amp;"&lt;/h4&gt;"&amp;C21&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H21" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I21" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J21" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K21" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L21" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="10"/>
+      <c r="C22" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B22&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D22" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D22&amp;"&lt;/h4&gt;"&amp;C22&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H22" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I22" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J22" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K22" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L22" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="10"/>
+      <c r="C23" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B23&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D23" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D23&amp;"&lt;/h4&gt;"&amp;C23&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H23" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I23" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J23" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K23" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L23" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="10"/>
+      <c r="C24" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B24&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D24" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D24&amp;"&lt;/h4&gt;"&amp;C24&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H24" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I24" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J24" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K24" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L24" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="10"/>
+      <c r="C25" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B25&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D25" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D25&amp;"&lt;/h4&gt;"&amp;C25&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H25" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I25" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J25" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K25" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L25" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="10"/>
+      <c r="C26" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B26&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D26" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D26&amp;"&lt;/h4&gt;"&amp;C26&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H26" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I26" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J26" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K26" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L26" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="10"/>
+      <c r="C27" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B27&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D27" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D27&amp;"&lt;/h4&gt;"&amp;C27&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H27" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I27" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J27" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K27" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L27" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="10"/>
+      <c r="C28" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B28&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D28" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D28&amp;"&lt;/h4&gt;"&amp;C28&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H28" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I28" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J28" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K28" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L28" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="10"/>
+      <c r="C29" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B29&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D29" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D29&amp;"&lt;/h4&gt;"&amp;C29&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H29" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I29" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J29" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K29" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L29" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="12"/>
+      <c r="C30" s="16" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B30&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D30" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="24" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D30&amp;"&lt;/h4&gt;"&amp;C30&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H30" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I30" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J30" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K30" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L30" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="10"/>
+      <c r="C31" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B31&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D31" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D31&amp;"&lt;/h4&gt;"&amp;C31&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H31" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I31" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J31" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K31" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L31" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="10"/>
+      <c r="C32" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B32&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D32" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D32&amp;"&lt;/h4&gt;"&amp;C32&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H32" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I32" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J32" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K32" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L32" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="10"/>
+      <c r="C33" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B33&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D33" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D33&amp;"&lt;/h4&gt;"&amp;C33&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H33" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I33" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J33" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K33" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L33" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="10"/>
+      <c r="C34" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B34&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D34" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D34&amp;"&lt;/h4&gt;"&amp;C34&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H34" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I34" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J34" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K34" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L34" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="10"/>
+      <c r="C35" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B35&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D35" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D35&amp;"&lt;/h4&gt;"&amp;C35&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H35" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I35" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J35" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K35" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L35" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="10"/>
+      <c r="C36" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B36&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D36" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D36&amp;"&lt;/h4&gt;"&amp;C36&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H36" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I36" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J36" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K36" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L36" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="10"/>
+      <c r="C37" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B37&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D37" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D37&amp;"&lt;/h4&gt;"&amp;C37&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H37" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I37" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J37" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K37" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L37" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="10"/>
+      <c r="C38" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B38&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D38" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D38&amp;"&lt;/h4&gt;"&amp;C38&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H38" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I38" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J38" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K38" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L38" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="10"/>
+      <c r="C39" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B39&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D39" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D39&amp;"&lt;/h4&gt;"&amp;C39&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H39" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I39" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J39" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K39" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L39" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="10"/>
+      <c r="C40" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B40&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D40" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D40&amp;"&lt;/h4&gt;"&amp;C40&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H40" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I40" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J40" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K40" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L40" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="10"/>
+      <c r="C41" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B41&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D41" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D41&amp;"&lt;/h4&gt;"&amp;C41&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H41" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I41" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J41" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K41" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L41" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="10"/>
+      <c r="C42" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B42&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D42" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D42&amp;"&lt;/h4&gt;"&amp;C42&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H42" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I42" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J42" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K42" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L42" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="10"/>
+      <c r="C43" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B43&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D43" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D43&amp;"&lt;/h4&gt;"&amp;C43&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H43" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I43" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J43" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K43" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L43" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="10"/>
+      <c r="C44" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B44&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D44" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D44&amp;"&lt;/h4&gt;"&amp;C44&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H44" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I44" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J44" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K44" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L44" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="10"/>
+      <c r="C45" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B45&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D45" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D45&amp;"&lt;/h4&gt;"&amp;C45&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H45" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I45" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J45" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K45" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L45" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="10"/>
+      <c r="C46" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B46&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D46" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D46&amp;"&lt;/h4&gt;"&amp;C46&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H46" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I46" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J46" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K46" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L46" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="10"/>
+      <c r="C47" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B47&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D47" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D47&amp;"&lt;/h4&gt;"&amp;C47&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H47" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I47" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J47" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K47" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L47" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="10"/>
+      <c r="C48" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B48&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D48" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D48&amp;"&lt;/h4&gt;"&amp;C48&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H48" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I48" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J48" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K48" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L48" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="10"/>
+      <c r="C49" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B49&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D49" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D49&amp;"&lt;/h4&gt;"&amp;C49&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H49" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I49" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J49" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K49" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L49" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="10"/>
+      <c r="C50" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B50&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D50" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D50&amp;"&lt;/h4&gt;"&amp;C50&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H50" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I50" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J50" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K50" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L50" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="10"/>
+      <c r="C51" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B51&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D51" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D51&amp;"&lt;/h4&gt;"&amp;C51&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H51" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I51" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J51" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K51" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L51" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="10"/>
+      <c r="C52" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B52&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D52" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D52&amp;"&lt;/h4&gt;"&amp;C52&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H52" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I52" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J52" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K52" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L52" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="10"/>
+      <c r="C53" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B53&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D53" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D53&amp;"&lt;/h4&gt;"&amp;C53&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H53" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I53" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J53" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K53" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L53" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="10"/>
+      <c r="C54" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B54&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D54" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D54&amp;"&lt;/h4&gt;"&amp;C54&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H54" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I54" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J54" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K54" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L54" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="10"/>
+      <c r="C55" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B55&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D55" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D55&amp;"&lt;/h4&gt;"&amp;C55&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H55" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I55" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J55" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K55" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L55" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="10"/>
+      <c r="C56" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B56&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D56" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D56&amp;"&lt;/h4&gt;"&amp;C56&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H56" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I56" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J56" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K56" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L56" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="10"/>
+      <c r="C57" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B57&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D57" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D57&amp;"&lt;/h4&gt;"&amp;C57&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H57" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I57" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J57" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K57" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L57" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="10"/>
+      <c r="C58" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B58&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D58" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D58&amp;"&lt;/h4&gt;"&amp;C58&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H58" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I58" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J58" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K58" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L58" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="10"/>
+      <c r="C59" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B59&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D59" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D59&amp;"&lt;/h4&gt;"&amp;C59&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H59" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I59" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J59" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K59" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L59" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="10"/>
+      <c r="C60" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B60&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D60" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D60&amp;"&lt;/h4&gt;"&amp;C60&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H60" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I60" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J60" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K60" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L60" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="10"/>
+      <c r="C61" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B61&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D61" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E61" s="10"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D61&amp;"&lt;/h4&gt;"&amp;C61&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H61" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I61" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J61" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K61" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L61" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="10"/>
+      <c r="C62" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B62&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D62" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D62&amp;"&lt;/h4&gt;"&amp;C62&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H62" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I62" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J62" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K62" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L62" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="10"/>
+      <c r="C63" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B63&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D63" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D63&amp;"&lt;/h4&gt;"&amp;C63&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H63" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I63" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J63" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K63" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L63" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="10"/>
+      <c r="C64" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B64&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D64" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D64&amp;"&lt;/h4&gt;"&amp;C64&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H64" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I64" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J64" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K64" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L64" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="10"/>
+      <c r="C65" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B65&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D65" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D65&amp;"&lt;/h4&gt;"&amp;C65&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H65" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I65" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J65" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K65" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L65" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="10"/>
+      <c r="C66" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B66&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D66" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E66" s="10"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D66&amp;"&lt;/h4&gt;"&amp;C66&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H66" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I66" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J66" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K66" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L66" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="10"/>
+      <c r="C67" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B67&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D67" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E67" s="10"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D67&amp;"&lt;/h4&gt;"&amp;C67&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H67" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I67" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J67" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K67" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L67" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="10"/>
+      <c r="C68" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B68&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D68" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D68&amp;"&lt;/h4&gt;"&amp;C68&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H68" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I68" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J68" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K68" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L68" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="10"/>
+      <c r="C69" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B69&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D69" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E69" s="10"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D69&amp;"&lt;/h4&gt;"&amp;C69&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H69" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I69" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J69" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K69" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L69" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="10"/>
+      <c r="C70" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B70&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D70" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D70&amp;"&lt;/h4&gt;"&amp;C70&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H70" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I70" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J70" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K70" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L70" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="10"/>
+      <c r="C71" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B71&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D71" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D71&amp;"&lt;/h4&gt;"&amp;C71&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H71" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I71" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J71" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K71" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L71" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="10"/>
+      <c r="C72" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B72&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D72" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D72&amp;"&lt;/h4&gt;"&amp;C72&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H72" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I72" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J72" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K72" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L72" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="10"/>
+      <c r="C73" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B73&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D73" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E73" s="10"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D73&amp;"&lt;/h4&gt;"&amp;C73&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H73" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I73" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J73" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K73" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L73" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="10"/>
+      <c r="C74" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B74&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D74" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D74&amp;"&lt;/h4&gt;"&amp;C74&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H74" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I74" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J74" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K74" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L74" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="10"/>
+      <c r="C75" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B75&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D75" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D75&amp;"&lt;/h4&gt;"&amp;C75&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H75" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I75" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J75" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K75" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L75" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="10"/>
+      <c r="C76" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B76&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D76" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E76" s="10"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D76&amp;"&lt;/h4&gt;"&amp;C76&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H76" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I76" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J76" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K76" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L76" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="10"/>
+      <c r="C77" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B77&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D77" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D77&amp;"&lt;/h4&gt;"&amp;C77&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H77" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I77" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J77" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K77" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L77" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B78" s="10"/>
+      <c r="C78" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B78&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D78" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E78" s="10"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D78&amp;"&lt;/h4&gt;"&amp;C78&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H78" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I78" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J78" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K78" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L78" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B79" s="10"/>
+      <c r="C79" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B79&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D79" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E79" s="10"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D79&amp;"&lt;/h4&gt;"&amp;C79&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H79" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I79" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J79" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K79" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L79" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B80" s="10"/>
+      <c r="C80" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B80&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D80" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D80&amp;"&lt;/h4&gt;"&amp;C80&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H80" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I80" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J80" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K80" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L80" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B81" s="10"/>
+      <c r="C81" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B81&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D81" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D81&amp;"&lt;/h4&gt;"&amp;C81&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H81" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I81" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J81" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K81" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L81" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B82" s="10"/>
+      <c r="C82" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B82&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D82" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D82&amp;"&lt;/h4&gt;"&amp;C82&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H82" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I82" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J82" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K82" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L82" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B83" s="10"/>
+      <c r="C83" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B83&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D83" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D83&amp;"&lt;/h4&gt;"&amp;C83&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H83" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I83" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J83" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K83" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L83" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B84" s="10"/>
+      <c r="C84" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B84&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D84" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E84" s="10"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D84&amp;"&lt;/h4&gt;"&amp;C84&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H84" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I84" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J84" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K84" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L84" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B85" s="10"/>
+      <c r="C85" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B85&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D85" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D85&amp;"&lt;/h4&gt;"&amp;C85&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H85" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I85" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J85" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K85" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L85" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B86" s="10"/>
+      <c r="C86" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B86&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D86" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D86&amp;"&lt;/h4&gt;"&amp;C86&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H86" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I86" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J86" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K86" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L86" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B87" s="10"/>
+      <c r="C87" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B87&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D87" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D87&amp;"&lt;/h4&gt;"&amp;C87&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H87" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I87" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J87" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K87" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L87" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B88" s="10"/>
+      <c r="C88" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B88&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D88" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E88" s="10"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D88&amp;"&lt;/h4&gt;"&amp;C88&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H88" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I88" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J88" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K88" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L88" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B89" s="10"/>
+      <c r="C89" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B89&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D89" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E89" s="10"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D89&amp;"&lt;/h4&gt;"&amp;C89&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H89" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I89" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J89" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K89" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L89" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B90" s="10"/>
+      <c r="C90" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B90&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D90" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E90" s="10"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D90&amp;"&lt;/h4&gt;"&amp;C90&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H90" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I90" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J90" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K90" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L90" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B91" s="10"/>
+      <c r="C91" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B91&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D91" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E91" s="10"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D91&amp;"&lt;/h4&gt;"&amp;C91&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H91" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I91" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J91" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K91" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L91" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B92" s="10"/>
+      <c r="C92" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B92&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D92" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E92" s="10"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D92&amp;"&lt;/h4&gt;"&amp;C92&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H92" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I92" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J92" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K92" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L92" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B93" s="10"/>
+      <c r="C93" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B93&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D93" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E93" s="10"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D93&amp;"&lt;/h4&gt;"&amp;C93&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H93" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I93" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J93" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K93" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L93" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B94" s="10"/>
+      <c r="C94" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B94&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D94" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E94" s="10"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D94&amp;"&lt;/h4&gt;"&amp;C94&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H94" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I94" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J94" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K94" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L94" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B95" s="10"/>
+      <c r="C95" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B95&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D95" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E95" s="10"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D95&amp;"&lt;/h4&gt;"&amp;C95&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H95" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I95" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J95" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K95" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L95" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B96" s="10"/>
+      <c r="C96" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B96&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D96" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E96" s="10"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D96&amp;"&lt;/h4&gt;"&amp;C96&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H96" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I96" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J96" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K96" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L96" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B97" s="10"/>
+      <c r="C97" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B97&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D97" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E97" s="10"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D97&amp;"&lt;/h4&gt;"&amp;C97&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H97" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I97" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J97" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K97" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L97" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B98" s="10"/>
+      <c r="C98" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B98&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D98" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E98" s="10"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D98&amp;"&lt;/h4&gt;"&amp;C98&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H98" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I98" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J98" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K98" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L98" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B99" s="10"/>
+      <c r="C99" s="15" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B99&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D99" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E99" s="10"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="21" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D99&amp;"&lt;/h4&gt;"&amp;C99&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H99" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I99" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J99" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K99" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L99" s="22" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="2:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B100" s="12"/>
+      <c r="C100" s="16" t="str">
+        <f>IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##",Tabelle1[[#This Row],[Moodle field / Feld]],"[["&amp;B100&amp;"]]")</f>
+        <v>[[]]</v>
+      </c>
+      <c r="D100" s="15" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]="",Tabelle1[[#This Row],[Moodle field / Feld]],Tabelle1[[#This Row],[Custom Headline / Eigene Überschrift]]))</f>
+        <v/>
+      </c>
+      <c r="E100" s="12"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="24" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(LEFT(Tabelle1[[#This Row],[Moodle field / Feld]],2)="##","","&lt;div&gt;&lt;h4 class='my-3'&gt;"&amp;D100&amp;"&lt;/h4&gt;"&amp;C100&amp;"&lt;br&gt;&lt;/div&gt;"))</f>
+        <v/>
+      </c>
+      <c r="H100" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;")</f>
+        <v/>
+      </c>
+      <c r="I100" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","",IF(ISBLANK(Tabelle1[[#This Row],[Datatable-Priority / Priorität]]),"&lt;th&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;","&lt;th data-priority='"&amp;Tabelle1[[#This Row],[Datatable-Priority / Priorität]]&amp;"'&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/th&gt;"))</f>
+        <v/>
+      </c>
+      <c r="J100" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;td&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;")</f>
+        <v/>
+      </c>
+      <c r="K100" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;p&gt;&lt;h4&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;"&lt;/h4&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/p&gt;")</f>
+        <v/>
+      </c>
+      <c r="L100" s="23" t="str">
+        <f>IF(Tabelle1[[#This Row],[Moodle field / Feld]]="","","&lt;tr class=''&gt;&lt;td class='template-field cell c0' style=''&gt;"&amp;Tabelle1[[#This Row],[Headline / Überschriften]]&amp;": &lt;/td&gt;&lt;td class='template-token cell c1 lastcol' style=''&gt;"&amp;Tabelle1[[#This Row],[fiel'#id]]&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" selectLockedCells="1" sort="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B3:C3">
-    <cfRule type="expression" dxfId="24" priority="10">
+  <conditionalFormatting sqref="B3:C100">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>$C3="[[]]"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="23" priority="37"/>
+  <conditionalFormatting sqref="B3:B100">
+    <cfRule type="duplicateValues" dxfId="19" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="22" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
-      <formula>"&lt;----- Add field"</formula>
+  <conditionalFormatting sqref="D3:E100">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+      <formula>"&lt;----- Add field or select a ##tag##"</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B100" xr:uid="{2FF112CA-4D3E-4848-A19A-DD1F10DA2840}">
+      <formula1>$N$3:$N$8</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J3 F3" calculatedColumn="1"/>
+    <ignoredError sqref="D3" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -1770,7 +5470,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E2</xm:sqref>
+          <xm:sqref>F2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="35" id="{782B3D60-64E5-4D21-982D-F1986967DF2B}">
@@ -1786,7 +5486,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E3</xm:sqref>
+          <xm:sqref>F3:F100</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1796,7 +5496,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDA18EC-E1B4-42CD-BFA1-2278BF1C1F76}">
-  <dimension ref="B1:D18"/>
+  <dimension ref="B1:D17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -1811,11 +5511,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="20.05" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:4" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="str">
+      <c r="B2" s="4" t="str">
         <f>IF(Settings!$E$7="EN","Template","Vorlage")</f>
         <v>Template</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1824,9 +5524,9 @@
         <f>IF(Settings!$E$7="EN","Add template","Neue Einträge")</f>
         <v>Add template</v>
       </c>
-      <c r="C3" s="32" t="str">
+      <c r="C3" s="5" t="str">
         <f>"&lt;div class='container'&gt;&lt;div class='card shadow mb-4 rounded'&gt;&lt;div class='card-header bg-info'&gt;&lt;h4 class='m-2'&gt;"&amp;Settings!E11&amp;"&lt;/h4&gt;&lt;/div&gt;&lt;div class='card-body pb-0 pt-4 m-0'&gt;&lt;div class='card-text m-0 p-0'&gt;"&amp;_xlfn.TEXTJOIN(,TRUE,Tabelle1[divs])&amp;"&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;hr&gt;"</f>
-        <v>&lt;div class='container'&gt;&lt;div class='card shadow mb-4 rounded'&gt;&lt;div class='card-header bg-info'&gt;&lt;h4 class='m-2'&gt;Add Entry&lt;/h4&gt;&lt;/div&gt;&lt;div class='card-body pb-0 pt-4 m-0'&gt;&lt;div class='card-text m-0 p-0'&gt;&lt;div&gt;&lt;h4 class='my-3'&gt;&lt;----- Add field&lt;/h4&gt;[[]]&lt;br&gt;&lt;/div&gt;&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;hr&gt;</v>
+        <v>&lt;div class='container'&gt;&lt;div class='card shadow mb-4 rounded'&gt;&lt;div class='card-header bg-info'&gt;&lt;h4 class='m-2'&gt;Add Entry&lt;/h4&gt;&lt;/div&gt;&lt;div class='card-body pb-0 pt-4 m-0'&gt;&lt;div class='card-text m-0 p-0'&gt;&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;hr&gt;</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>""</f>
@@ -1838,9 +5538,9 @@
         <f>IF(Settings!$E$7="EN","Single template","Einzelansicht")</f>
         <v>Single template</v>
       </c>
-      <c r="C4" s="32" t="str">
+      <c r="C4" s="5" t="str">
         <f>"&lt;div class='container'&gt; &lt;div class='card shadow mb-4 rounded'&gt; &lt;div class='card-header bg-info'&gt; &lt;div class='row'&gt;"&amp;" &lt;div class='col-6'&gt; &lt;h4 class='m-2'&gt;"&amp;Settings!E16&amp;"&lt;/h4&gt; &lt;/div&gt; &lt;div class='col-6 text-right'&gt;"&amp;"&lt;h4 class='m-2'&gt;&lt;em&gt;##approvalstatus## &lt;/em&gt;&amp;ensp; ##edit####delete####approve####disapprove##&lt;/h4&gt;&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;div class='card-body'&gt; &lt;div class='container'&gt;"&amp;" &lt;div class='row'&gt; &lt;div class='col'&gt;"&amp;_xlfn.TEXTJOIN(,,Tabelle1[p])&amp;"&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;div class='card-footer text-muted text-center'&gt;&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;hr&gt;"</f>
-        <v>&lt;div class='container'&gt; &lt;div class='card shadow mb-4 rounded'&gt; &lt;div class='card-header bg-info'&gt; &lt;div class='row'&gt; &lt;div class='col-6'&gt; &lt;h4 class='m-2'&gt;View Single&lt;/h4&gt; &lt;/div&gt; &lt;div class='col-6 text-right'&gt;&lt;h4 class='m-2'&gt;&lt;em&gt;##approvalstatus## &lt;/em&gt;&amp;ensp; ##edit####delete####approve####disapprove##&lt;/h4&gt;&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;div class='card-body'&gt; &lt;div class='container'&gt; &lt;div class='row'&gt; &lt;div class='col'&gt;&lt;p&gt;&lt;h4&gt;&lt;----- Add field&lt;/h4&gt;[[]]&lt;/p&gt;&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;div class='card-footer text-muted text-center'&gt;&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;hr&gt;</v>
+        <v>&lt;div class='container'&gt; &lt;div class='card shadow mb-4 rounded'&gt; &lt;div class='card-header bg-info'&gt; &lt;div class='row'&gt; &lt;div class='col-6'&gt; &lt;h4 class='m-2'&gt;View Single&lt;/h4&gt; &lt;/div&gt; &lt;div class='col-6 text-right'&gt;&lt;h4 class='m-2'&gt;&lt;em&gt;##approvalstatus## &lt;/em&gt;&amp;ensp; ##edit####delete####approve####disapprove##&lt;/h4&gt;&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;div class='card-body'&gt; &lt;div class='container'&gt; &lt;div class='row'&gt; &lt;div class='col'&gt;&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;div class='card-footer text-muted text-center'&gt;&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;hr&gt;</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>""</f>
@@ -1851,9 +5551,9 @@
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="32" t="str">
+      <c r="C5" s="5" t="str">
         <f>"&lt;div class='table-responsive'&gt;&lt;table class='table table-bordered table-hover table-striped'&gt;&lt;thead&gt;&lt;tr class='fixieren'&gt;"&amp;_xlfn.TEXTJOIN(,TRUE,Tabelle1[th])&amp;"&lt;th class='text-center'&gt;&lt;i class='fa fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;"</f>
-        <v>&lt;div class='table-responsive'&gt;&lt;table class='table table-bordered table-hover table-striped'&gt;&lt;thead&gt;&lt;tr class='fixieren'&gt;&lt;th&gt;&lt;----- Add field&lt;/th&gt;&lt;th class='text-center'&gt;&lt;i class='fa fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;</v>
+        <v>&lt;div class='table-responsive'&gt;&lt;table class='table table-bordered table-hover table-striped'&gt;&lt;thead&gt;&lt;tr class='fixieren'&gt;&lt;th class='text-center'&gt;&lt;i class='fa fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>""</f>
@@ -1864,9 +5564,9 @@
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="32" t="str">
+      <c r="C6" s="5" t="str">
         <f>"&lt;!-- DataTables CSS --&gt;&lt;link rel='stylesheet' type='text/css' href='https://cdn.datatables.net/v/bs4/jq-3.6.0/jszip-2.5.0/dt-1.13.2/b-2.3.4/b-colvis-2.3.4/b-html5-2.3.4/b-print-2.3.4/r-2.4.0/datatables.min.css'/&gt;"&amp;"&lt;table id='mydatatable' class='table table-striped table-bordered hover display compact sm order-column'style='width:100%'&gt;&lt;thead class='table-info'&gt;&lt;tr&gt;"&amp;_xlfn.TEXTJOIN(,,Tabelle1[th-dt])&amp;"&lt;th data-priority='1' class='text-center'&gt;&lt;i class='fa  fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;"</f>
-        <v>&lt;!-- DataTables CSS --&gt;&lt;link rel='stylesheet' type='text/css' href='https://cdn.datatables.net/v/bs4/jq-3.6.0/jszip-2.5.0/dt-1.13.2/b-2.3.4/b-colvis-2.3.4/b-html5-2.3.4/b-print-2.3.4/r-2.4.0/datatables.min.css'/&gt;&lt;table id='mydatatable' class='table table-striped table-bordered hover display compact sm order-column'style='width:100%'&gt;&lt;thead class='table-info'&gt;&lt;tr&gt;&lt;th&gt;&lt;----- Add field&lt;/th&gt;&lt;th data-priority='1' class='text-center'&gt;&lt;i class='fa  fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;</v>
+        <v>&lt;!-- DataTables CSS --&gt;&lt;link rel='stylesheet' type='text/css' href='https://cdn.datatables.net/v/bs4/jq-3.6.0/jszip-2.5.0/dt-1.13.2/b-2.3.4/b-colvis-2.3.4/b-html5-2.3.4/b-print-2.3.4/r-2.4.0/datatables.min.css'/&gt;&lt;table id='mydatatable' class='table table-striped table-bordered hover display compact sm order-column'style='width:100%'&gt;&lt;thead class='table-info'&gt;&lt;tr&gt;&lt;th data-priority='1' class='text-center'&gt;&lt;i class='fa  fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>""</f>
@@ -1878,9 +5578,9 @@
         <f>IF(Settings!$E$7="EN","List template (Header)","Liste (Kopfzeile)")</f>
         <v>List template (Header)</v>
       </c>
-      <c r="C7" s="32" t="str">
+      <c r="C7" s="5" t="str">
         <f>IF(Settings!E8="Yes / Ja",C6,C5)</f>
-        <v>&lt;div class='table-responsive'&gt;&lt;table class='table table-bordered table-hover table-striped'&gt;&lt;thead&gt;&lt;tr class='fixieren'&gt;&lt;th&gt;&lt;----- Add field&lt;/th&gt;&lt;th class='text-center'&gt;&lt;i class='fa fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;</v>
+        <v>&lt;div class='table-responsive'&gt;&lt;table class='table table-bordered table-hover table-striped'&gt;&lt;thead&gt;&lt;tr class='fixieren'&gt;&lt;th class='text-center'&gt;&lt;i class='fa fa-bars' aria-hidden='true'&gt;&lt;/i&gt;&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>""</f>
@@ -1892,9 +5592,9 @@
         <f>IF(Settings!$E$7="EN","List template (Repeated entry)","Liste (Wiederholter Eintrag)")</f>
         <v>List template (Repeated entry)</v>
       </c>
-      <c r="C8" s="32" t="str">
+      <c r="C8" s="5" t="str">
         <f>"&lt;tr&gt;"&amp;_xlfn.TEXTJOIN(,TRUE,Tabelle1[td])&amp;"&lt;td&gt;&lt;div class='dropdown'&gt;&lt;button class='btn btn-outline-primary dropdown-toggle' type='button' id='dropdownMenuButton' data-toggle='dropdown' aria-haspopup='true' aria-expanded='false'&gt;"&amp;IF(Settings!$E$7="EN","More","Mehr")&amp;"&lt;/button&gt;"&amp;"&lt;div class='dropdown-menu'&gt;&lt;div class='dropdown-item'&gt;##more##&lt;/div&gt;&lt;div class='dropdown-item'&gt;##edit##&lt;/div&gt;"&amp;"&lt;div class='dropdown-item'&gt;##approve####disapprove##&lt;/div&gt;&lt;div class='dropdown-divider'&gt;&lt;/div&gt;&lt;div class='dropdown-item'&gt;##delete##&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;[[]]&lt;/td&gt;&lt;td&gt;&lt;div class='dropdown'&gt;&lt;button class='btn btn-outline-primary dropdown-toggle' type='button' id='dropdownMenuButton' data-toggle='dropdown' aria-haspopup='true' aria-expanded='false'&gt;More&lt;/button&gt;&lt;div class='dropdown-menu'&gt;&lt;div class='dropdown-item'&gt;##more##&lt;/div&gt;&lt;div class='dropdown-item'&gt;##edit##&lt;/div&gt;&lt;div class='dropdown-item'&gt;##approve####disapprove##&lt;/div&gt;&lt;div class='dropdown-divider'&gt;&lt;/div&gt;&lt;div class='dropdown-item'&gt;##delete##&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;div class='dropdown'&gt;&lt;button class='btn btn-outline-primary dropdown-toggle' type='button' id='dropdownMenuButton' data-toggle='dropdown' aria-haspopup='true' aria-expanded='false'&gt;More&lt;/button&gt;&lt;div class='dropdown-menu'&gt;&lt;div class='dropdown-item'&gt;##more##&lt;/div&gt;&lt;div class='dropdown-item'&gt;##edit##&lt;/div&gt;&lt;div class='dropdown-item'&gt;##approve####disapprove##&lt;/div&gt;&lt;div class='dropdown-divider'&gt;&lt;/div&gt;&lt;div class='dropdown-item'&gt;##delete##&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>""</f>
@@ -1905,7 +5605,7 @@
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="32" t="str">
+      <c r="C9" s="5" t="str">
         <f>"&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;"</f>
         <v>&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;</v>
       </c>
@@ -1918,8 +5618,9 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>51</v>
+      <c r="C10" s="5" t="str">
+        <f>"&lt;/tbody&gt; &lt;/table&gt; &lt;!-- Optional JavaScript --&gt; &lt;!-- jQuery first, then Popper.js, then Bootstrap JS --&gt; &lt;script src='https://code.jquery.com/jquery-3.3.1.slim.min.js'"&amp;" integrity='sha384-q8i/X+965DzO0rT7abK41JStQIAqVgRVzpbzo5smXKp4YfRvH+8abtTE1Pi6jizo' crossorigin='anonymous'&gt;&lt;/script&gt; &lt;script src='https://cdnjs.cloudflare.com/ajax/libs/popper.js/1.14.7/umd/popper.min.js'"&amp;" integrity='sha384-UO2eT0CpHqdSJQ6hJty5KVphtPhzWj9WO1clHTMGa3JDZwrnQq4sF86dIHNDz0W1' crossorigin='anonymous'&gt;&lt;/script&gt; &lt;!-- DataTables JavaScript --&gt;"&amp;" &lt;script type='text/javascript' src='https://cdnjs.cloudflare.com/ajax/libs/pdfmake/0.1.36/pdfmake.min.js'&gt;&lt;/script&gt; &lt;script type='text/javascript' src='https://cdnjs.cloudflare.com/ajax/libs/pdfmake/0.1.36/vfs_fonts.js'&gt;&lt;/script&gt;"&amp;" &lt;script type='text/javascript' src='https://cdn.datatables.net/v/bs4/jq-3.6.0/jszip-2.5.0/dt-1.13.2/b-2.3.4/b-colvis-2.3.4/b-html5-2.3.4/b-print-2.3.4/r-2.4.0/datatables.min.js'&gt;&lt;/script&gt;"&amp;" &lt;script&gt; $(document).ready(function () { $('#mydatatable').DataTable({ responsive: true, paging: false, autoWidth: false, info: false, dom: 'frtipB',"&amp;" buttons: [{ extend: 'copy', text: '"&amp;IF(Settings!$E$7="EN","Copy","Kopieren")&amp;"', className: 'btn btn-secondary mx-1' }, { extend: 'excel', text: 'Excel', className: 'btn btn-secondary mr-1' }, "&amp;"{ extend: 'csvHtml5', text: 'CSV', fieldBoundary: '', fieldSeparator: ';', className: 'btn btn-secondary mr-1' }, "&amp;"{ extend: 'pdf', text: 'PDF', className: 'btn btn-secondary mr-1' }, { extend: 'print', text: '"&amp;IF(Settings!$E$7="EN","Print","Drucken")&amp;"', className: 'btn btn-secondary mr-1' }] }); }); &lt;/script&gt;"&amp;" &lt;style&gt; div.dt-buttons { float: right; } &lt;/style&gt;"</f>
+        <v>&lt;/tbody&gt; &lt;/table&gt; &lt;!-- Optional JavaScript --&gt; &lt;!-- jQuery first, then Popper.js, then Bootstrap JS --&gt; &lt;script src='https://code.jquery.com/jquery-3.3.1.slim.min.js' integrity='sha384-q8i/X+965DzO0rT7abK41JStQIAqVgRVzpbzo5smXKp4YfRvH+8abtTE1Pi6jizo' crossorigin='anonymous'&gt;&lt;/script&gt; &lt;script src='https://cdnjs.cloudflare.com/ajax/libs/popper.js/1.14.7/umd/popper.min.js' integrity='sha384-UO2eT0CpHqdSJQ6hJty5KVphtPhzWj9WO1clHTMGa3JDZwrnQq4sF86dIHNDz0W1' crossorigin='anonymous'&gt;&lt;/script&gt; &lt;!-- DataTables JavaScript --&gt; &lt;script type='text/javascript' src='https://cdnjs.cloudflare.com/ajax/libs/pdfmake/0.1.36/pdfmake.min.js'&gt;&lt;/script&gt; &lt;script type='text/javascript' src='https://cdnjs.cloudflare.com/ajax/libs/pdfmake/0.1.36/vfs_fonts.js'&gt;&lt;/script&gt; &lt;script type='text/javascript' src='https://cdn.datatables.net/v/bs4/jq-3.6.0/jszip-2.5.0/dt-1.13.2/b-2.3.4/b-colvis-2.3.4/b-html5-2.3.4/b-print-2.3.4/r-2.4.0/datatables.min.js'&gt;&lt;/script&gt; &lt;script&gt; $(document).ready(function () { $('#mydatatable').DataTable({ responsive: true, paging: false, autoWidth: false, info: false, dom: 'frtipB', buttons: [{ extend: 'copy', text: 'Copy', className: 'btn btn-secondary mx-1' }, { extend: 'excel', text: 'Excel', className: 'btn btn-secondary mr-1' }, { extend: 'csvHtml5', text: 'CSV', fieldBoundary: '', fieldSeparator: ';', className: 'btn btn-secondary mr-1' }, { extend: 'pdf', text: 'PDF', className: 'btn btn-secondary mr-1' }, { extend: 'print', text: 'Print', className: 'btn btn-secondary mr-1' }] }); }); &lt;/script&gt; &lt;style&gt; div.dt-buttons { float: right; } &lt;/style&gt;</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>""</f>
@@ -1931,7 +5632,7 @@
         <f>IF(Settings!$E$7="EN","List template (Footer)","Liste (Fußzeile)")</f>
         <v>List template (Footer)</v>
       </c>
-      <c r="C11" s="32" t="str">
+      <c r="C11" s="5" t="str">
         <f>IF(Settings!E8="Yes / Ja",C10,C9)</f>
         <v>&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;</v>
       </c>
@@ -1945,7 +5646,7 @@
         <f>IF(Settings!$E$7="EN","Advanced search template","Erweiterten Suche")</f>
         <v>Advanced search template</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="1" t="str">
         <f>""</f>
         <v/>
@@ -1956,7 +5657,7 @@
         <f>IF(Settings!$E$7="EN","RSS template","RSS-Feed")</f>
         <v>RSS template</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="1" t="str">
         <f>""</f>
         <v/>
@@ -1966,7 +5667,7 @@
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="32"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="1" t="str">
         <f>""</f>
         <v/>
@@ -1977,7 +5678,7 @@
         <f>IF(Settings!$E$7="EN","CSS template","CSS-Vorlage")</f>
         <v>CSS template</v>
       </c>
-      <c r="C15" s="32" t="str">
+      <c r="C15" s="5" t="str">
         <f>"/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","View single","Einzelansicht")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Edit","Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Edit","Bearbeiten")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' "&amp;IF(Settings!$E$7="EN","Delete","Löschen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN","Do not approve","Nicht freigeben")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' "&amp;IF(Settings!$E$7="EN","Approve","Zulassen")&amp;"'; font-family: 'Titillium Web', Segoe UI, sans-serif; } "&amp;" #region-main .dropdown-item:empty { display: none; } "&amp;" /* Headlines */ h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; } "&amp;" /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; } "&amp;" /* Button color */ .btn-outline-primary { color: "&amp;Settings!E24&amp;"!important; border-color: "&amp;Settings!E24&amp;"!important; } "&amp;".btn-outline-primary:hover, .btn-outline-primary:active, .btn-outline-primary:visited, .btn-outline-primary:focus {background-color: "&amp;Settings!E24&amp;" !important;color: #ffffff !important;}"&amp;".dropdown-item:hover .icon {color: #fff;}"&amp;" /* Header new entry */ #page-mod-data-edit .card-header { background-color: "&amp;Settings!E12&amp;" !important; } "&amp;" #page-mod-data-edit .card-header h4 { color: "&amp;Settings!E13&amp;"; } .dropdown-item:hover{background-color: "&amp;Settings!E24&amp;";}"&amp;" /* Headlines formfields */ h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; } "&amp;" /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; } "&amp;" /* Header color single view */ #page-mod-data-view .card-header { background-color: "&amp;Settings!E17&amp;" !important; } "&amp;" #page-mod-data-view .card-header h4 { color: "&amp;Settings!E18&amp;"; } "&amp;" /* Edit Icons color and bigger size */ .card-header .icon { color: "&amp;Settings!E19&amp;"; font-size: 20px; width: 20px; height: 20px; } "&amp;" /* Style of table header in list view */ th { background-color: "&amp;Settings!E22&amp;"; color: "&amp;Settings!E23&amp;"; }"</f>
         <v>/* CSS for dropdown-menu in list view */ #region-main .dropdown-menu .icon.fa.fa-search-plus.fa-fw::after { content: ' View single'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-cog.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-pencil.fa-fw::after { content: ' Edit'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-trash.fa-fw::after { content: ' Delete'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-ban.fa-fw.iconsmall::after { content: ' Do not approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-menu .icon.fa.fa-thumbs-up.fa-fw.iconsmall::after { content: ' Approve'; font-family: 'Titillium Web', Segoe UI, sans-serif; }  #region-main .dropdown-item:empty { display: none; }  /* Headlines */ h4 { margin-top: 1em; margin-bottom: 0.3em; font-weight: 300; }  /* responsive images */ #page-mod-data-view img.list_picture { max-width: 100%; }  /* Button color */ .btn-outline-primary { color: #008196!important; border-color: #008196!important; } .btn-outline-primary:hover, .btn-outline-primary:active, .btn-outline-primary:visited, .btn-outline-primary:focus {background-color: #008196 !important;color: #ffffff !important;}.dropdown-item:hover .icon {color: #fff;} /* Header new entry */ #page-mod-data-edit .card-header { background-color: #008196 !important; }  #page-mod-data-edit .card-header h4 { color: #ffffff; } .dropdown-item:hover{background-color: #008196;} /* Headlines formfields */ h6 { font-size: 1.2em; font-weight: 400; margin-bottom: 0.7em; }  /* margin after Atto editor */ .mod-data-input:has(.editor_atto_wrap) { margin-bottom: 20px; }  /* Header color single view */ #page-mod-data-view .card-header { background-color: #008196 !important; }  #page-mod-data-view .card-header h4 { color: #ffffff; }  /* Edit Icons color and bigger size */ .card-header .icon { color: #ffffff; font-size: 20px; width: 20px; height: 20px; }  /* Style of table header in list view */ th { background-color: #008196; color: #ffffff; }</v>
       </c>
@@ -1991,48 +5692,20 @@
         <f>IF(Settings!$E$7="EN","Javascript template","JavaScript für Vorlagen")</f>
         <v>Javascript template</v>
       </c>
-      <c r="C16" s="32"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:4" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D17" s="1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="2" t="str">
-        <f>IF(Settings!$E$7="EN","DataTables Check","DataTables Prüfung")</f>
-        <v>DataTables Check</v>
-      </c>
-      <c r="C18" s="31" t="str">
-        <f>IF(Settings!$E$7="EN",IF(Settings!E8="Yes / Ja",IF(SUM(Tabelle1[Datatable-Priority / Priorität])=(COUNTA(Tabelle1[Datatable-Priority / Priorität]))*(COUNTA(Tabelle1[Datatable-Priority / Priorität])+1)/2,"All DataTable priorities correct!","DataTable priorities not correct!"),"DataTable not activated!"),IF(Settings!E8="Yes / Ja",IF(SUM(Tabelle1[Datatable-Priority / Priorität])=(COUNTA(Tabelle1[Datatable-Priority / Priorität]))*(COUNTA(Tabelle1[Datatable-Priority / Priorität])+1)/2,"Alle Prioritäten korrekt angegeben!","Prioritäten nicht korrekt angegeben!"),"DataTables wird nicht verwendet!"))</f>
-        <v>DataTable not activated!</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"All DataTable priorities correct!"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"DataTable priorities not correct!"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"Alle Prioritäten korrekt angegeben!"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
-      <formula>"Prioritäten nicht korrekt angegeben!"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>

--- a/Template-Generator for Moodle Databases.xlsx
+++ b/Template-Generator for Moodle Databases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa2fd555716d4621/Schule/Schule/Medien/Moodle/Vorlagen/Datenbank/Git/moodle-database-generator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa2fd555716d4621/Schule/Schule/Medien/Moodle/Vorlagen/Datenbank/Datenbank-Generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1013" documentId="13_ncr:1_{7DEECC36-6B18-4B7F-96A7-5897EB976A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D12737C-0860-4C1E-8F4A-9E2A3DA49D79}"/>
+  <xr:revisionPtr revIDLastSave="1024" documentId="13_ncr:1_{7DEECC36-6B18-4B7F-96A7-5897EB976A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7512A99B-AB4D-4062-9692-3441E88F3BE5}"/>
   <bookViews>
     <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B7FF9584-A0C9-4520-8363-27EB39F90318}"/>
   </bookViews>
@@ -5593,8 +5593,8 @@
         <v>List template (Repeated entry)</v>
       </c>
       <c r="C8" s="5" t="str">
-        <f>"&lt;tr&gt;"&amp;_xlfn.TEXTJOIN(,TRUE,Tabelle1[td])&amp;"&lt;td&gt;&lt;div class='dropdown'&gt;&lt;button class='btn btn-outline-primary dropdown-toggle' type='button' id='dropdownMenuButton' data-toggle='dropdown' aria-haspopup='true' aria-expanded='false'&gt;"&amp;IF(Settings!$E$7="EN","More","Mehr")&amp;"&lt;/button&gt;"&amp;"&lt;div class='dropdown-menu'&gt;&lt;div class='dropdown-item'&gt;##more##&lt;/div&gt;&lt;div class='dropdown-item'&gt;##edit##&lt;/div&gt;"&amp;"&lt;div class='dropdown-item'&gt;##approve####disapprove##&lt;/div&gt;&lt;div class='dropdown-divider'&gt;&lt;/div&gt;&lt;div class='dropdown-item'&gt;##delete##&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;div class='dropdown'&gt;&lt;button class='btn btn-outline-primary dropdown-toggle' type='button' id='dropdownMenuButton' data-toggle='dropdown' aria-haspopup='true' aria-expanded='false'&gt;More&lt;/button&gt;&lt;div class='dropdown-menu'&gt;&lt;div class='dropdown-item'&gt;##more##&lt;/div&gt;&lt;div class='dropdown-item'&gt;##edit##&lt;/div&gt;&lt;div class='dropdown-item'&gt;##approve####disapprove##&lt;/div&gt;&lt;div class='dropdown-divider'&gt;&lt;/div&gt;&lt;div class='dropdown-item'&gt;##delete##&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr&gt;"&amp;_xlfn.TEXTJOIN(,TRUE,Tabelle1[td])&amp;"&lt;td align='center'&gt;&lt;div class='dropdown'&gt;&lt;button class='btn btn-outline-primary dropdown-toggle' type='button' id='dropdownMenuButton' data-toggle='dropdown' aria-haspopup='true' aria-expanded='false'&gt;"&amp;IF(Settings!$E$7="EN","More","Mehr")&amp;"&lt;/button&gt;"&amp;"&lt;div class='dropdown-menu'&gt;&lt;div class='dropdown-item'&gt;##more##&lt;/div&gt;&lt;div class='dropdown-item'&gt;##edit##&lt;/div&gt;"&amp;"&lt;div class='dropdown-item'&gt;##approve####disapprove##&lt;/div&gt;&lt;div class='dropdown-divider'&gt;&lt;/div&gt;&lt;div class='dropdown-item'&gt;##delete##&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td align='center'&gt;&lt;div class='dropdown'&gt;&lt;button class='btn btn-outline-primary dropdown-toggle' type='button' id='dropdownMenuButton' data-toggle='dropdown' aria-haspopup='true' aria-expanded='false'&gt;More&lt;/button&gt;&lt;div class='dropdown-menu'&gt;&lt;div class='dropdown-item'&gt;##more##&lt;/div&gt;&lt;div class='dropdown-item'&gt;##edit##&lt;/div&gt;&lt;div class='dropdown-item'&gt;##approve####disapprove##&lt;/div&gt;&lt;div class='dropdown-divider'&gt;&lt;/div&gt;&lt;div class='dropdown-item'&gt;##delete##&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>""</f>
@@ -5709,7 +5709,7 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C4:C9 C11:C15" unlockedFormula="1"/>
+    <ignoredError sqref="C4:C7 C11:C15 C9" unlockedFormula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>